--- a/L_R_Curve_Calculation_For_Zh.xlsx
+++ b/L_R_Curve_Calculation_For_Zh.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PNDC\TN-006Harmonic\2Bus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PNDC\TN-006Harmonic\Harmonic_OpenDSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6940ECC-3F5E-4199-B5F7-ACCA065EAE41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E150AD-C33A-408F-9399-4E101B9A62B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="0" windowWidth="15720" windowHeight="14415" xr2:uid="{B34353C0-2A4C-4364-8829-8249301E7BD1}"/>
+    <workbookView xWindow="-19320" yWindow="690" windowWidth="19440" windowHeight="15000" xr2:uid="{B34353C0-2A4C-4364-8829-8249301E7BD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t>h</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>No harmonic impedence</t>
+  </si>
+  <si>
+    <t>old</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
   <dimension ref="B1:T35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+      <selection activeCell="Q5" sqref="Q5:Q34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,6 +564,9 @@
       <c r="P4" t="s">
         <v>9</v>
       </c>
+      <c r="Q4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B5">
@@ -591,7 +597,7 @@
         <v>230</v>
       </c>
       <c r="J5">
-        <f t="shared" ref="J5:J34" si="0">SQRT(($R$3*SQRT(C5))^2+(B5^2*C5^2*$S$3^2))</f>
+        <f>SQRT(($R$3*SQRT(C5))^2+(B5^2*C5^2*$S$3^2))</f>
         <v>5.3758720222862447E-2</v>
       </c>
       <c r="K5">
@@ -615,6 +621,10 @@
         <f>I5-($T$3*O5)</f>
         <v>223.26102186774287</v>
       </c>
+      <c r="Q5">
+        <f>B5*C5*$T$3</f>
+        <v>5.3758720222862447E-2</v>
+      </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6">
@@ -627,15 +637,15 @@
         <v>100</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" ref="E6:E14" si="1">SQRT(C6)</f>
+        <f>SQRT(C6)</f>
         <v>1.4142135623730951</v>
       </c>
       <c r="F6">
-        <f t="shared" ref="F6:F14" si="2">B6*C6</f>
+        <f>B6*C6</f>
         <v>2</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" ref="G6:G14" si="3">F6/(2*PI()*D6)</f>
+        <f t="shared" ref="G6:G14" si="0">F6/(2*PI()*D6)</f>
         <v>3.1830988618379067E-3</v>
       </c>
       <c r="H6">
@@ -645,29 +655,33 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <f t="shared" si="0"/>
+        <f>SQRT(($R$3*SQRT(C6))^2+(B6^2*C6^2*$S$3^2))</f>
         <v>7.7084369362407049E-2</v>
       </c>
       <c r="K6">
         <v>1.58592E-2</v>
       </c>
       <c r="L6" s="5">
-        <f t="shared" ref="L6:L34" si="4">I6-(J6*K6)</f>
+        <f t="shared" ref="L6:L34" si="1">I6-(J6*K6)</f>
         <v>-1.222496430592286E-3</v>
       </c>
       <c r="M6">
         <v>4.2757799999999999E-2</v>
       </c>
       <c r="N6">
-        <f t="shared" ref="N6:N34" si="5">I6-(J6*M6)</f>
+        <f t="shared" ref="N6:N34" si="2">I6-(J6*M6)</f>
         <v>-3.2959580483239281E-3</v>
       </c>
       <c r="O6" s="1">
         <v>2.85293E-2</v>
       </c>
       <c r="P6">
-        <f t="shared" ref="P6:P34" si="6">I6-($T$3*O6)</f>
+        <f t="shared" ref="P6:P34" si="3">I6-($T$3*O6)</f>
         <v>-1.5336986568541095E-3</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" ref="Q6:Q34" si="4">B6*C6*$T$3</f>
+        <v>0.10751744044572489</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
@@ -681,15 +695,15 @@
         <v>150</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E7:E14" si="5">SQRT(C7)</f>
         <v>1.7320508075688772</v>
       </c>
       <c r="F7">
-        <f t="shared" si="2"/>
+        <f>B7*C7</f>
         <v>3</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>3.1830988618379067E-3</v>
       </c>
       <c r="H7">
@@ -699,29 +713,33 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="J7:J34" si="6">SQRT(($R$3*SQRT(C7))^2+(B7^2*C7^2*$S$3^2))</f>
         <v>9.5686989711245479E-2</v>
       </c>
       <c r="K7">
         <v>0.27999299999999999</v>
       </c>
       <c r="L7" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>-2.6791687310220753E-2</v>
       </c>
       <c r="M7">
         <v>2.7269600000000001</v>
       </c>
       <c r="N7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>-0.26093459346297798</v>
       </c>
       <c r="O7" s="1">
         <v>1.8226199999999999</v>
       </c>
       <c r="P7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-9.7981718652593544E-2</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="4"/>
+        <v>0.16127616066858735</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
@@ -735,15 +753,15 @@
         <v>200</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F8">
-        <f t="shared" si="2"/>
+        <f>B8*C8</f>
         <v>4</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>3.1830988618379067E-3</v>
       </c>
       <c r="H8">
@@ -753,29 +771,33 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.11194641575325223</v>
       </c>
       <c r="K8">
         <v>1.28382999999999E-2</v>
       </c>
       <c r="L8" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>-1.4372016693649668E-3</v>
       </c>
       <c r="M8">
         <v>4.3957700000000002E-2</v>
       </c>
       <c r="N8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>-4.920906959756736E-3</v>
       </c>
       <c r="O8" s="1">
         <v>2.95675E-2</v>
       </c>
       <c r="P8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-1.5895109601894854E-3</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="4"/>
+        <v>0.21503488089144979</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
@@ -789,15 +811,15 @@
         <v>250</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.2360679774997898</v>
       </c>
       <c r="F9">
-        <f t="shared" si="2"/>
+        <f>B9*C9</f>
         <v>5</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>3.1830988618379071E-3</v>
       </c>
       <c r="H9">
@@ -807,29 +829,33 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.1267675037223657</v>
       </c>
       <c r="K9">
         <v>0.23080599999999901</v>
       </c>
       <c r="L9" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>-2.9258700464144211E-2</v>
       </c>
       <c r="M9">
         <v>2.7387700000000001</v>
       </c>
       <c r="N9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>-0.34718703616970353</v>
       </c>
       <c r="O9" s="1">
         <v>1.85982</v>
       </c>
       <c r="P9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-9.9981543044884033E-2</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="4"/>
+        <v>0.26879360111431222</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
@@ -843,15 +869,15 @@
         <v>300</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.4494897427831779</v>
       </c>
       <c r="F10">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="F10:F14" si="7">B10*C10</f>
         <v>6</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>3.1830988618379067E-3</v>
       </c>
       <c r="H10">
@@ -861,29 +887,33 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.14060583202698243</v>
       </c>
       <c r="K10">
         <v>1.08366E-2</v>
       </c>
       <c r="L10" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>-1.5236891593435977E-3</v>
       </c>
       <c r="M10">
         <v>2.5647900000000001E-2</v>
       </c>
       <c r="N10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>-3.606244319244843E-3</v>
       </c>
       <c r="O10" s="1">
         <v>1.77080999999999E-2</v>
       </c>
       <c r="P10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-9.5196479357846512E-4</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="4"/>
+        <v>0.32255232133717471</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
@@ -897,48 +927,52 @@
         <v>350</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.6457513110645907</v>
       </c>
       <c r="F11">
-        <f t="shared" si="2"/>
+        <f>B11*C11</f>
         <v>7</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>3.1830988618379071E-3</v>
       </c>
       <c r="H11">
-        <f t="shared" ref="H11:H34" si="7">G11/$G$5</f>
+        <f t="shared" ref="H11:H34" si="8">G11/$G$5</f>
         <v>1.0000000000000002</v>
       </c>
       <c r="I11" s="4">
         <v>0</v>
       </c>
       <c r="J11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.15372703080460506</v>
       </c>
       <c r="K11">
         <v>0.26271099999999997</v>
       </c>
       <c r="L11" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>-4.0385781989708595E-2</v>
       </c>
       <c r="M11">
         <v>1.3986000000000001</v>
       </c>
       <c r="N11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>-0.21500262528332065</v>
       </c>
       <c r="O11" s="1">
         <v>0.98980699999999999</v>
       </c>
       <c r="P11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-5.3210757587630809E-2</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="4"/>
+        <v>0.37631104156003714</v>
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
@@ -952,48 +986,52 @@
         <v>400</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.8284271247461903</v>
       </c>
       <c r="F12">
-        <f t="shared" si="2"/>
+        <f>B12*C12</f>
         <v>4</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="3"/>
+        <f>F12/(2*PI()*D12)</f>
         <v>1.5915494309189533E-3</v>
       </c>
       <c r="H12">
-        <f t="shared" si="7"/>
+        <f>G12/$G$5</f>
         <v>0.5</v>
       </c>
       <c r="I12" s="4">
         <v>0</v>
       </c>
       <c r="J12">
-        <f t="shared" si="0"/>
+        <f>SQRT(($R$3*SQRT(C12))^2+(B12^2*C12^2*$S$3^2))</f>
         <v>0.1541687387248141</v>
       </c>
       <c r="K12">
         <v>1.08103E-2</v>
       </c>
       <c r="L12" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>-1.6666103162368579E-3</v>
       </c>
       <c r="M12">
         <v>1.6794699999999999E-2</v>
       </c>
       <c r="N12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>-2.5892177162616351E-3</v>
       </c>
       <c r="O12" s="1">
         <v>1.2203200000000001E-2</v>
       </c>
       <c r="P12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-6.5602841462363503E-4</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="4"/>
+        <v>0.21503488089144979</v>
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
@@ -1007,48 +1045,52 @@
         <v>450</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="F13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>4.5</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1.5915494309189533E-3</v>
       </c>
       <c r="H13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
       <c r="I13" s="4">
         <v>0</v>
       </c>
       <c r="J13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.16407696364816116</v>
       </c>
       <c r="K13">
         <v>3.141E-2</v>
       </c>
       <c r="L13" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>-5.1536574281887421E-3</v>
       </c>
       <c r="M13">
         <v>1.0447200000000001</v>
       </c>
       <c r="N13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>-0.17141448546250693</v>
       </c>
       <c r="O13" s="1">
         <v>0.790242</v>
       </c>
       <c r="P13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-4.2482398586355268E-2</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="4"/>
+        <v>0.241914241002881</v>
       </c>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
@@ -1062,48 +1104,52 @@
         <v>500</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3.1622776601683795</v>
       </c>
       <c r="F14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1.5915494309189536E-3</v>
       </c>
       <c r="H14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.50000000000000011</v>
       </c>
       <c r="I14" s="4">
         <v>0</v>
       </c>
       <c r="J14">
-        <f t="shared" si="0"/>
+        <f>SQRT(($R$3*SQRT(C14))^2+(B14^2*C14^2*$S$3^2))</f>
         <v>0.17353673962593627</v>
       </c>
       <c r="K14">
         <v>7.8429699999999995E-3</v>
       </c>
       <c r="L14" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>-1.3610434427840292E-3</v>
       </c>
       <c r="M14">
         <v>9.4900699999999998E-3</v>
       </c>
       <c r="N14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>-1.6468758066219089E-3</v>
       </c>
       <c r="O14" s="1">
         <v>7.52638E-3</v>
       </c>
       <c r="P14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-4.0460855671094746E-4</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="4"/>
+        <v>0.26879360111431222</v>
       </c>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.25">
@@ -1117,48 +1163,52 @@
         <v>550</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" ref="E15:E34" si="8">SQRT(C15)</f>
+        <f t="shared" ref="E15:E34" si="9">SQRT(C15)</f>
         <v>3.3166247903553998</v>
       </c>
       <c r="F15">
-        <f t="shared" ref="F15:F34" si="9">B15*C15</f>
+        <f t="shared" ref="F15:F34" si="10">B15*C15</f>
         <v>5.5</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" ref="G15:G34" si="10">F15/(2*PI()*D15)</f>
+        <f t="shared" ref="G15:G34" si="11">F15/(2*PI()*D15)</f>
         <v>1.5915494309189533E-3</v>
       </c>
       <c r="H15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
       <c r="I15" s="4">
         <v>0</v>
       </c>
       <c r="J15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.18261777021965853</v>
       </c>
       <c r="K15">
         <v>0.22534799999999999</v>
       </c>
       <c r="L15" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>-4.1152549283459607E-2</v>
       </c>
       <c r="M15">
         <v>0.41286800000000001</v>
       </c>
       <c r="N15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>-7.539703355504998E-2</v>
       </c>
       <c r="O15" s="1">
         <v>0.34503899999999998</v>
       </c>
       <c r="P15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-1.8548855066976237E-2</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="4"/>
+        <v>0.29567296122574344</v>
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
@@ -1172,51 +1222,55 @@
         <v>650</v>
       </c>
       <c r="E16" s="2">
+        <f t="shared" si="9"/>
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="10"/>
+        <v>6.5</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="11"/>
+        <v>1.5915494309189536E-3</v>
+      </c>
+      <c r="H16">
         <f t="shared" si="8"/>
-        <v>3.6055512754639891</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="9"/>
-        <v>6.5</v>
-      </c>
-      <c r="G16" s="1">
-        <f t="shared" si="10"/>
-        <v>1.5915494309189536E-3</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="7"/>
         <v>0.50000000000000011</v>
       </c>
       <c r="I16" s="4">
         <v>0</v>
       </c>
       <c r="J16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.19984806729112992</v>
       </c>
       <c r="K16">
         <v>8.1173200000000001E-2</v>
       </c>
       <c r="L16" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>-1.6222307135836347E-2</v>
       </c>
       <c r="M16">
         <v>0.35063800000000001</v>
       </c>
       <c r="N16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>-7.0074326618827218E-2</v>
       </c>
       <c r="O16" s="1">
         <v>0.33291100000000001</v>
       </c>
       <c r="P16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-1.789686930811336E-2</v>
       </c>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q16">
+        <f t="shared" si="4"/>
+        <v>0.34943168144860592</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>0.5</v>
       </c>
@@ -1227,51 +1281,55 @@
         <v>750</v>
       </c>
       <c r="E17" s="2">
+        <f t="shared" si="9"/>
+        <v>3.872983346207417</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="10"/>
+        <v>7.5</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="11"/>
+        <v>1.5915494309189533E-3</v>
+      </c>
+      <c r="H17">
         <f t="shared" si="8"/>
-        <v>3.872983346207417</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="9"/>
-        <v>7.5</v>
-      </c>
-      <c r="G17" s="1">
-        <f t="shared" si="10"/>
-        <v>1.5915494309189533E-3</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
       <c r="I17" s="4">
         <v>0</v>
       </c>
       <c r="J17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.21608158181575771</v>
       </c>
       <c r="K17">
         <v>0.108359999999999</v>
       </c>
       <c r="L17" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>-2.3414600205555289E-2</v>
       </c>
       <c r="M17">
         <v>9.5224399999999904E-2</v>
       </c>
       <c r="N17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>-2.0576238979456419E-2</v>
       </c>
       <c r="O17" s="1">
         <v>0.106234</v>
       </c>
       <c r="P17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-5.7110038841555692E-3</v>
       </c>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q17">
+        <f t="shared" si="4"/>
+        <v>0.40319040167146836</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>0.5</v>
       </c>
@@ -1282,51 +1340,55 @@
         <v>850</v>
       </c>
       <c r="E18" s="2">
+        <f t="shared" si="9"/>
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="10"/>
+        <v>8.5</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="11"/>
+        <v>1.5915494309189536E-3</v>
+      </c>
+      <c r="H18">
         <f t="shared" si="8"/>
-        <v>4.1231056256176606</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="9"/>
-        <v>8.5</v>
-      </c>
-      <c r="G18" s="1">
-        <f t="shared" si="10"/>
-        <v>1.5915494309189536E-3</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="7"/>
         <v>0.50000000000000011</v>
       </c>
       <c r="I18" s="4">
         <v>0</v>
       </c>
       <c r="J18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.23152807605126424</v>
       </c>
       <c r="K18">
         <v>4.4851299999999997E-2</v>
       </c>
       <c r="L18" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>-1.0384335197398066E-2</v>
       </c>
       <c r="M18">
         <v>8.2739899999999894E-2</v>
       </c>
       <c r="N18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>-1.9156609859673972E-2</v>
       </c>
       <c r="O18" s="1">
         <v>0.111942</v>
       </c>
       <c r="P18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-6.0178586591876681E-3</v>
       </c>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q18">
+        <f t="shared" si="4"/>
+        <v>0.45694912189433079</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>0.5</v>
       </c>
@@ -1337,51 +1399,55 @@
         <v>950</v>
       </c>
       <c r="E19" s="2">
+        <f t="shared" si="9"/>
+        <v>4.358898943540674</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="10"/>
+        <v>9.5</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="11"/>
+        <v>1.5915494309189533E-3</v>
+      </c>
+      <c r="H19">
         <f t="shared" si="8"/>
-        <v>4.358898943540674</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="9"/>
-        <v>9.5</v>
-      </c>
-      <c r="G19" s="1">
-        <f t="shared" si="10"/>
-        <v>1.5915494309189533E-3</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
       <c r="I19" s="4">
         <v>0</v>
       </c>
       <c r="J19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.24633564500494037</v>
       </c>
       <c r="K19">
         <v>9.9272299999999994E-2</v>
       </c>
       <c r="L19" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>-2.445430605162394E-2</v>
       </c>
       <c r="M19">
         <v>5.8999000000000003E-2</v>
       </c>
       <c r="N19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>-1.4533556719646477E-2</v>
       </c>
       <c r="O19" s="1">
         <v>9.8087099999999997E-2</v>
       </c>
       <c r="P19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-5.2730369663719313E-3</v>
       </c>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q19">
+        <f t="shared" si="4"/>
+        <v>0.51070784211719322</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>0.5</v>
       </c>
@@ -1392,51 +1458,55 @@
         <v>1050</v>
       </c>
       <c r="E20" s="2">
+        <f t="shared" si="9"/>
+        <v>4.5825756949558398</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="10"/>
+        <v>10.5</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="11"/>
+        <v>1.5915494309189533E-3</v>
+      </c>
+      <c r="H20">
         <f t="shared" si="8"/>
-        <v>4.5825756949558398</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="9"/>
-        <v>10.5</v>
-      </c>
-      <c r="G20" s="1">
-        <f t="shared" si="10"/>
-        <v>1.5915494309189533E-3</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
       <c r="I20" s="4">
         <v>0</v>
       </c>
       <c r="J20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.26061321915820002</v>
       </c>
       <c r="K20">
         <v>4.4715600000000001E-2</v>
       </c>
       <c r="L20" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>-1.1653476462590408E-2</v>
       </c>
       <c r="M20">
         <v>3.3607699999999997E-2</v>
       </c>
       <c r="N20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>-8.7586108855030372E-3</v>
       </c>
       <c r="O20" s="1">
         <v>6.6814899999999899E-2</v>
       </c>
       <c r="P20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-3.5918835158185265E-3</v>
       </c>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q20">
+        <f t="shared" si="4"/>
+        <v>0.56446656234005566</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>0.5</v>
       </c>
@@ -1447,51 +1517,55 @@
         <v>1150</v>
       </c>
       <c r="E21" s="2">
+        <f t="shared" si="9"/>
+        <v>4.7958315233127191</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="10"/>
+        <v>11.5</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="11"/>
+        <v>1.5915494309189536E-3</v>
+      </c>
+      <c r="H21">
         <f t="shared" si="8"/>
-        <v>4.7958315233127191</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="9"/>
-        <v>11.5</v>
-      </c>
-      <c r="G21" s="1">
-        <f t="shared" si="10"/>
-        <v>1.5915494309189536E-3</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="7"/>
         <v>0.50000000000000011</v>
       </c>
       <c r="I21" s="4">
         <v>0</v>
       </c>
       <c r="J21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.27444352788870785</v>
       </c>
       <c r="K21">
         <v>5.5341300000000003E-2</v>
       </c>
       <c r="L21" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>-1.5188061609947349E-2</v>
       </c>
       <c r="M21">
         <v>3.7790499999999998E-2</v>
       </c>
       <c r="N21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>-1.0371358140678213E-2</v>
       </c>
       <c r="O21" s="1">
         <v>8.3875500000000006E-2</v>
       </c>
       <c r="P21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-4.509039538052699E-3</v>
       </c>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q21">
+        <f t="shared" si="4"/>
+        <v>0.61822528256291809</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>0.5</v>
       </c>
@@ -1502,51 +1576,55 @@
         <v>1250</v>
       </c>
       <c r="E22" s="2">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="10"/>
+        <v>12.5</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="11"/>
+        <v>1.5915494309189533E-3</v>
+      </c>
+      <c r="H22">
         <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="9"/>
-        <v>12.5</v>
-      </c>
-      <c r="G22" s="1">
-        <f t="shared" si="10"/>
-        <v>1.5915494309189533E-3</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
       <c r="I22" s="4">
         <v>0</v>
       </c>
       <c r="J22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.28789103841557834</v>
       </c>
       <c r="K22">
         <v>6.01229E-2</v>
       </c>
       <c r="L22" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>-1.7308844113555974E-2</v>
       </c>
       <c r="M22">
         <v>3.3136199999999998E-2</v>
       </c>
       <c r="N22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>-9.5396150271462865E-3</v>
       </c>
       <c r="O22" s="1">
         <v>7.4602299999999996E-2</v>
       </c>
       <c r="P22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-4.0105241736820511E-3</v>
       </c>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q22">
+        <f t="shared" si="4"/>
+        <v>0.67198400278578063</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>0.5</v>
       </c>
@@ -1557,51 +1635,55 @@
         <v>1350</v>
       </c>
       <c r="E23" s="2">
+        <f t="shared" si="9"/>
+        <v>5.196152422706632</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="10"/>
+        <v>13.5</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" si="11"/>
+        <v>1.5915494309189533E-3</v>
+      </c>
+      <c r="H23">
         <f t="shared" si="8"/>
-        <v>5.196152422706632</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="9"/>
-        <v>13.5</v>
-      </c>
-      <c r="G23" s="1">
-        <f t="shared" si="10"/>
-        <v>1.5915494309189533E-3</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
       <c r="I23" s="4">
         <v>0</v>
       </c>
       <c r="J23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.30100705971787439</v>
       </c>
       <c r="K23">
         <v>3.3899199999999997E-2</v>
       </c>
       <c r="L23" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>-1.0203898518788166E-2</v>
       </c>
       <c r="M23">
         <v>3.2453999999999997E-2</v>
       </c>
       <c r="N23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>-9.768883116083895E-3</v>
       </c>
       <c r="O23" s="1">
         <v>6.81866E-2</v>
       </c>
       <c r="P23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-3.6656243523482323E-3</v>
       </c>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q23">
+        <f t="shared" si="4"/>
+        <v>0.72574272300864306</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>0.5</v>
       </c>
@@ -1612,51 +1694,55 @@
         <v>1450</v>
       </c>
       <c r="E24" s="2">
+        <f t="shared" si="9"/>
+        <v>5.3851648071345037</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="10"/>
+        <v>14.5</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="11"/>
+        <v>1.5915494309189536E-3</v>
+      </c>
+      <c r="H24">
         <f t="shared" si="8"/>
-        <v>5.3851648071345037</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="9"/>
-        <v>14.5</v>
-      </c>
-      <c r="G24" s="1">
-        <f t="shared" si="10"/>
-        <v>1.5915494309189536E-3</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="7"/>
         <v>0.50000000000000011</v>
       </c>
       <c r="I24" s="4">
         <v>0</v>
       </c>
       <c r="J24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.31383315631080155</v>
       </c>
       <c r="K24">
         <v>5.5140499999999898E-2</v>
       </c>
       <c r="L24" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>-1.7304917155555721E-2</v>
       </c>
       <c r="M24">
         <v>4.70058E-2</v>
       </c>
       <c r="N24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>-1.4751978578914277E-2</v>
       </c>
       <c r="O24" s="1">
         <v>8.8220599999999996E-2</v>
       </c>
       <c r="P24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-4.7426265532930587E-3</v>
       </c>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q24">
+        <f t="shared" si="4"/>
+        <v>0.7795014432315055</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>0.5</v>
       </c>
@@ -1667,51 +1753,55 @@
         <v>1550</v>
       </c>
       <c r="E25" s="2">
+        <f t="shared" si="9"/>
+        <v>5.5677643628300215</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="10"/>
+        <v>15.5</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="11"/>
+        <v>1.5915494309189533E-3</v>
+      </c>
+      <c r="H25">
         <f t="shared" si="8"/>
-        <v>5.5677643628300215</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="9"/>
-        <v>15.5</v>
-      </c>
-      <c r="G25" s="1">
-        <f t="shared" si="10"/>
-        <v>1.5915494309189533E-3</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
       <c r="I25" s="4">
         <v>0</v>
       </c>
       <c r="J25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.32640350794683559</v>
       </c>
       <c r="K25">
         <v>6.4735799999999996E-2</v>
       </c>
       <c r="L25" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>-2.1129992209744757E-2</v>
       </c>
       <c r="M25">
         <v>5.0260100000000002E-2</v>
       </c>
       <c r="N25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>-1.6405072949758751E-2</v>
       </c>
       <c r="O25" s="1">
         <v>8.3450300000000005E-2</v>
       </c>
       <c r="P25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-4.4861813302139383E-3</v>
       </c>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q25">
+        <f t="shared" si="4"/>
+        <v>0.83326016345436793</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>0.5</v>
       </c>
@@ -1722,51 +1812,55 @@
         <v>1650</v>
       </c>
       <c r="E26" s="2">
+        <f t="shared" si="9"/>
+        <v>5.7445626465380286</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="10"/>
+        <v>16.5</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="11"/>
+        <v>1.5915494309189533E-3</v>
+      </c>
+      <c r="H26">
         <f t="shared" si="8"/>
-        <v>5.7445626465380286</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="9"/>
-        <v>16.5</v>
-      </c>
-      <c r="G26" s="1">
-        <f t="shared" si="10"/>
-        <v>1.5915494309189533E-3</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
       <c r="I26" s="4">
         <v>0</v>
       </c>
       <c r="J26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.33874658669867064</v>
       </c>
       <c r="K26">
         <v>3.6693299999999998E-2</v>
       </c>
       <c r="L26" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>-1.2429730129710331E-2</v>
       </c>
       <c r="M26">
         <v>5.0893800000000003E-2</v>
       </c>
       <c r="N26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>-1.7240101034124804E-2</v>
       </c>
       <c r="O26" s="1">
         <v>7.50445E-2</v>
       </c>
       <c r="P26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-4.034296279764601E-3</v>
       </c>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q26">
+        <f t="shared" si="4"/>
+        <v>0.88701888367723036</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>0.5</v>
       </c>
@@ -1777,51 +1871,55 @@
         <v>1750</v>
       </c>
       <c r="E27" s="2">
+        <f t="shared" si="9"/>
+        <v>5.9160797830996161</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="10"/>
+        <v>17.5</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" si="11"/>
+        <v>1.5915494309189536E-3</v>
+      </c>
+      <c r="H27">
         <f t="shared" si="8"/>
-        <v>5.9160797830996161</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="9"/>
-        <v>17.5</v>
-      </c>
-      <c r="G27" s="1">
-        <f t="shared" si="10"/>
-        <v>1.5915494309189536E-3</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="7"/>
         <v>0.50000000000000011</v>
       </c>
       <c r="I27" s="4">
         <v>0</v>
       </c>
       <c r="J27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.35088637762101854</v>
       </c>
       <c r="K27">
         <v>6.65467E-2</v>
       </c>
       <c r="L27" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>-2.3350330505632635E-2</v>
       </c>
       <c r="M27">
         <v>7.0622000000000004E-2</v>
       </c>
       <c r="N27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>-2.4780297760351573E-2</v>
       </c>
       <c r="O27" s="1">
         <v>9.3119599999999997E-2</v>
       </c>
       <c r="P27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-5.0059905236648616E-3</v>
       </c>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q27">
+        <f t="shared" si="4"/>
+        <v>0.9407776039000928</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>0.5</v>
       </c>
@@ -1832,51 +1930,55 @@
         <v>1850</v>
       </c>
       <c r="E28" s="2">
+        <f t="shared" si="9"/>
+        <v>6.0827625302982193</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="10"/>
+        <v>18.5</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" si="11"/>
+        <v>1.5915494309189533E-3</v>
+      </c>
+      <c r="H28">
         <f t="shared" si="8"/>
-        <v>6.0827625302982193</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="9"/>
-        <v>18.5</v>
-      </c>
-      <c r="G28" s="1">
-        <f t="shared" si="10"/>
-        <v>1.5915494309189533E-3</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
       <c r="I28" s="4">
         <v>0</v>
       </c>
       <c r="J28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.36284328573090613</v>
       </c>
       <c r="K28">
         <v>3.3714800000000003E-2</v>
       </c>
       <c r="L28" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>-1.2233188809760355E-2</v>
       </c>
       <c r="M28">
         <v>6.9085399999999894E-2</v>
       </c>
       <c r="N28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>-2.5067173532033905E-2</v>
       </c>
       <c r="O28" s="1">
         <v>8.1768599999999997E-2</v>
       </c>
       <c r="P28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-4.3957752904151505E-3</v>
       </c>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q28">
+        <f t="shared" si="4"/>
+        <v>0.99453632412295523</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>0.5</v>
       </c>
@@ -1887,51 +1989,55 @@
         <v>1950</v>
       </c>
       <c r="E29" s="2">
+        <f t="shared" si="9"/>
+        <v>6.2449979983983983</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="10"/>
+        <v>19.5</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" si="11"/>
+        <v>1.5915494309189533E-3</v>
+      </c>
+      <c r="H29">
         <f t="shared" si="8"/>
-        <v>6.2449979983983983</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="9"/>
-        <v>19.5</v>
-      </c>
-      <c r="G29" s="1">
-        <f t="shared" si="10"/>
-        <v>1.5915494309189533E-3</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
       <c r="I29" s="4">
         <v>0</v>
       </c>
       <c r="J29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.37463482219355954</v>
       </c>
       <c r="K29">
         <v>1.82910999999999E-2</v>
       </c>
       <c r="L29" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>-6.8524829962245794E-3</v>
       </c>
       <c r="M29">
         <v>6.6054999999999905E-2</v>
       </c>
       <c r="N29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>-2.4746503179995539E-2</v>
       </c>
       <c r="O29" s="1">
         <v>7.0286500000000002E-2</v>
       </c>
       <c r="P29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-3.7785122889442213E-3</v>
       </c>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q29">
+        <f t="shared" si="4"/>
+        <v>1.0482950443458177</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>0.5</v>
       </c>
@@ -1942,51 +2048,55 @@
         <v>2050</v>
       </c>
       <c r="E30" s="2">
+        <f t="shared" si="9"/>
+        <v>6.4031242374328485</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="10"/>
+        <v>20.5</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" si="11"/>
+        <v>1.5915494309189536E-3</v>
+      </c>
+      <c r="H30">
         <f t="shared" si="8"/>
-        <v>6.4031242374328485</v>
-      </c>
-      <c r="F30">
-        <f t="shared" si="9"/>
-        <v>20.5</v>
-      </c>
-      <c r="G30" s="1">
-        <f t="shared" si="10"/>
-        <v>1.5915494309189536E-3</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="7"/>
         <v>0.50000000000000011</v>
       </c>
       <c r="I30" s="4">
         <v>0</v>
       </c>
       <c r="J30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.38627613180210857</v>
       </c>
       <c r="K30">
         <v>3.6537899999999998E-2</v>
       </c>
       <c r="L30" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>-1.4113718676172261E-2</v>
       </c>
       <c r="M30">
         <v>7.2619799999999998E-2</v>
       </c>
       <c r="N30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>-2.8051295436242765E-2</v>
       </c>
       <c r="O30" s="1">
         <v>6.96518E-2</v>
       </c>
       <c r="P30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-3.7443916292187705E-3</v>
       </c>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q30">
+        <f t="shared" si="4"/>
+        <v>1.1020537645686801</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>0.5</v>
       </c>
@@ -1997,51 +2107,55 @@
         <v>2150</v>
       </c>
       <c r="E31" s="2">
+        <f t="shared" si="9"/>
+        <v>6.5574385243020004</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="10"/>
+        <v>21.5</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" si="11"/>
+        <v>1.5915494309189533E-3</v>
+      </c>
+      <c r="H31">
         <f t="shared" si="8"/>
-        <v>6.5574385243020004</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="9"/>
-        <v>21.5</v>
-      </c>
-      <c r="G31" s="1">
-        <f t="shared" si="10"/>
-        <v>1.5915494309189533E-3</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
       <c r="I31" s="4">
         <v>0</v>
       </c>
       <c r="J31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.39778040424334626</v>
       </c>
       <c r="K31">
         <v>3.0731499999999998E-2</v>
       </c>
       <c r="L31" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>-1.2224388493004395E-2</v>
       </c>
       <c r="M31">
         <v>7.3526899999999895E-2</v>
       </c>
       <c r="N31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>-2.9247560004760056E-2</v>
       </c>
       <c r="O31" s="1">
         <v>6.3677199999999906E-2</v>
       </c>
       <c r="P31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-3.4232047793752514E-3</v>
       </c>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q31">
+        <f t="shared" si="4"/>
+        <v>1.1558124847915425</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>0.5</v>
       </c>
@@ -2052,51 +2166,55 @@
         <v>2250</v>
       </c>
       <c r="E32" s="2">
+        <f t="shared" si="9"/>
+        <v>6.7082039324993694</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="10"/>
+        <v>22.5</v>
+      </c>
+      <c r="G32" s="1">
+        <f t="shared" si="11"/>
+        <v>1.5915494309189533E-3</v>
+      </c>
+      <c r="H32">
         <f t="shared" si="8"/>
-        <v>6.7082039324993694</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="9"/>
-        <v>22.5</v>
-      </c>
-      <c r="G32" s="1">
-        <f t="shared" si="10"/>
-        <v>1.5915494309189533E-3</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
       <c r="I32" s="4">
         <v>0</v>
       </c>
       <c r="J32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.40915919884563268</v>
       </c>
       <c r="K32">
         <v>1.8235600000000001E-2</v>
       </c>
       <c r="L32" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>-7.4612634864694195E-3</v>
       </c>
       <c r="M32">
         <v>6.7724099999999995E-2</v>
       </c>
       <c r="N32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>-2.770993849854151E-2</v>
       </c>
       <c r="O32" s="1">
         <v>5.3056199999999998E-2</v>
       </c>
       <c r="P32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-2.8522334118882345E-3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q32">
+        <f t="shared" si="4"/>
+        <v>1.209571205014405</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>0.5</v>
       </c>
@@ -2107,51 +2225,55 @@
         <v>2350</v>
       </c>
       <c r="E33" s="2">
+        <f t="shared" si="9"/>
+        <v>6.8556546004010439</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="10"/>
+        <v>23.5</v>
+      </c>
+      <c r="G33" s="1">
+        <f t="shared" si="11"/>
+        <v>1.5915494309189536E-3</v>
+      </c>
+      <c r="H33">
         <f t="shared" si="8"/>
-        <v>6.8556546004010439</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="9"/>
-        <v>23.5</v>
-      </c>
-      <c r="G33" s="1">
-        <f t="shared" si="10"/>
-        <v>1.5915494309189536E-3</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="7"/>
         <v>0.50000000000000011</v>
       </c>
       <c r="I33" s="4">
         <v>0</v>
       </c>
       <c r="J33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.4204227039540086</v>
       </c>
       <c r="K33">
         <v>2.87582999999999E-2</v>
       </c>
       <c r="L33" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>-1.2090642247120524E-2</v>
       </c>
       <c r="M33">
         <v>9.0136399999999894E-2</v>
       </c>
       <c r="N33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>-3.789538901268006E-2</v>
       </c>
       <c r="O33" s="1">
         <v>6.4156400000000002E-2</v>
       </c>
       <c r="P33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-3.4489659581060524E-3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q33">
+        <f t="shared" si="4"/>
+        <v>1.2633299252372674</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>0.5</v>
       </c>
@@ -2162,51 +2284,55 @@
         <v>2450</v>
       </c>
       <c r="E34" s="2">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="10"/>
+        <v>24.5</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" si="11"/>
+        <v>1.5915494309189533E-3</v>
+      </c>
+      <c r="H34">
         <f t="shared" si="8"/>
-        <v>7</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="9"/>
-        <v>24.5</v>
-      </c>
-      <c r="G34" s="1">
-        <f t="shared" si="10"/>
-        <v>1.5915494309189533E-3</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
       <c r="I34" s="4">
         <v>0</v>
       </c>
       <c r="J34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.43157994624403018</v>
       </c>
       <c r="K34">
         <v>2.8740600000000002E-2</v>
       </c>
       <c r="L34" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>-1.2403866603021174E-2</v>
       </c>
       <c r="M34">
         <v>7.9569200000000007E-2</v>
       </c>
       <c r="N34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>-3.4340471058680488E-2</v>
       </c>
       <c r="O34" s="1">
         <v>5.1546399999999999E-2</v>
       </c>
       <c r="P34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-2.7710684960957567E-3</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q34">
+        <f t="shared" si="4"/>
+        <v>1.31708864546013</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
       <c r="O35" s="3"/>
     </row>
   </sheetData>

--- a/L_R_Curve_Calculation_For_Zh.xlsx
+++ b/L_R_Curve_Calculation_For_Zh.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PNDC\TN-006Harmonic\Harmonic_OpenDSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E150AD-C33A-408F-9399-4E101B9A62B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F97498-28B9-4E77-B2EF-8BF325218FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="690" windowWidth="19440" windowHeight="15000" xr2:uid="{B34353C0-2A4C-4364-8829-8249301E7BD1}"/>
+    <workbookView xWindow="10155" yWindow="1260" windowWidth="17205" windowHeight="14415" xr2:uid="{B34353C0-2A4C-4364-8829-8249301E7BD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
   <si>
     <t>h</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>old</t>
+  </si>
+  <si>
+    <t>L=X/2piF</t>
   </si>
 </sst>
 </file>
@@ -451,8 +454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B68F4564-41EA-4CD1-AC49-16F5927E790C}">
   <dimension ref="B1:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5:Q34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,6 +495,9 @@
       </c>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
       <c r="K3" t="s">
         <v>14</v>
       </c>
@@ -645,7 +651,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" ref="G6:G14" si="0">F6/(2*PI()*D6)</f>
+        <f>F6/(2*PI()*D6)</f>
         <v>3.1830988618379067E-3</v>
       </c>
       <c r="H6">
@@ -662,25 +668,25 @@
         <v>1.58592E-2</v>
       </c>
       <c r="L6" s="5">
-        <f t="shared" ref="L6:L34" si="1">I6-(J6*K6)</f>
+        <f t="shared" ref="L6:L34" si="0">I6-(J6*K6)</f>
         <v>-1.222496430592286E-3</v>
       </c>
       <c r="M6">
         <v>4.2757799999999999E-2</v>
       </c>
       <c r="N6">
-        <f t="shared" ref="N6:N34" si="2">I6-(J6*M6)</f>
+        <f t="shared" ref="N6:N34" si="1">I6-(J6*M6)</f>
         <v>-3.2959580483239281E-3</v>
       </c>
       <c r="O6" s="1">
         <v>2.85293E-2</v>
       </c>
       <c r="P6">
-        <f t="shared" ref="P6:P34" si="3">I6-($T$3*O6)</f>
+        <f t="shared" ref="P6:P34" si="2">I6-($T$3*O6)</f>
         <v>-1.5336986568541095E-3</v>
       </c>
       <c r="Q6">
-        <f t="shared" ref="Q6:Q34" si="4">B6*C6*$T$3</f>
+        <f t="shared" ref="Q6:Q34" si="3">B6*C6*$T$3</f>
         <v>0.10751744044572489</v>
       </c>
     </row>
@@ -695,7 +701,7 @@
         <v>150</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" ref="E7:E14" si="5">SQRT(C7)</f>
+        <f t="shared" ref="E7:E14" si="4">SQRT(C7)</f>
         <v>1.7320508075688772</v>
       </c>
       <c r="F7">
@@ -703,7 +709,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G6:G14" si="5">F7/(2*PI()*D7)</f>
         <v>3.1830988618379067E-3</v>
       </c>
       <c r="H7">
@@ -720,25 +726,25 @@
         <v>0.27999299999999999</v>
       </c>
       <c r="L7" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.6791687310220753E-2</v>
       </c>
       <c r="M7">
         <v>2.7269600000000001</v>
       </c>
       <c r="N7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-0.26093459346297798</v>
       </c>
       <c r="O7" s="1">
         <v>1.8226199999999999</v>
       </c>
       <c r="P7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-9.7981718652593544E-2</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.16127616066858735</v>
       </c>
     </row>
@@ -753,7 +759,7 @@
         <v>200</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="F8">
@@ -761,7 +767,7 @@
         <v>4</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>3.1830988618379067E-3</v>
       </c>
       <c r="H8">
@@ -778,25 +784,25 @@
         <v>1.28382999999999E-2</v>
       </c>
       <c r="L8" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-1.4372016693649668E-3</v>
       </c>
       <c r="M8">
         <v>4.3957700000000002E-2</v>
       </c>
       <c r="N8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-4.920906959756736E-3</v>
       </c>
       <c r="O8" s="1">
         <v>2.95675E-2</v>
       </c>
       <c r="P8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-1.5895109601894854E-3</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.21503488089144979</v>
       </c>
     </row>
@@ -811,7 +817,7 @@
         <v>250</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.2360679774997898</v>
       </c>
       <c r="F9">
@@ -819,7 +825,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>3.1830988618379071E-3</v>
       </c>
       <c r="H9">
@@ -836,25 +842,25 @@
         <v>0.23080599999999901</v>
       </c>
       <c r="L9" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.9258700464144211E-2</v>
       </c>
       <c r="M9">
         <v>2.7387700000000001</v>
       </c>
       <c r="N9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-0.34718703616970353</v>
       </c>
       <c r="O9" s="1">
         <v>1.85982</v>
       </c>
       <c r="P9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-9.9981543044884033E-2</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.26879360111431222</v>
       </c>
     </row>
@@ -869,7 +875,7 @@
         <v>300</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.4494897427831779</v>
       </c>
       <c r="F10">
@@ -877,7 +883,7 @@
         <v>6</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>3.1830988618379067E-3</v>
       </c>
       <c r="H10">
@@ -894,25 +900,25 @@
         <v>1.08366E-2</v>
       </c>
       <c r="L10" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-1.5236891593435977E-3</v>
       </c>
       <c r="M10">
         <v>2.5647900000000001E-2</v>
       </c>
       <c r="N10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-3.606244319244843E-3</v>
       </c>
       <c r="O10" s="1">
         <v>1.77080999999999E-2</v>
       </c>
       <c r="P10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-9.5196479357846512E-4</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.32255232133717471</v>
       </c>
     </row>
@@ -927,7 +933,7 @@
         <v>350</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.6457513110645907</v>
       </c>
       <c r="F11">
@@ -935,7 +941,7 @@
         <v>7</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>3.1830988618379071E-3</v>
       </c>
       <c r="H11">
@@ -953,25 +959,25 @@
         <v>0.26271099999999997</v>
       </c>
       <c r="L11" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-4.0385781989708595E-2</v>
       </c>
       <c r="M11">
         <v>1.3986000000000001</v>
       </c>
       <c r="N11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-0.21500262528332065</v>
       </c>
       <c r="O11" s="1">
         <v>0.98980699999999999</v>
       </c>
       <c r="P11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-5.3210757587630809E-2</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.37631104156003714</v>
       </c>
     </row>
@@ -986,7 +992,7 @@
         <v>400</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.8284271247461903</v>
       </c>
       <c r="F12">
@@ -1012,25 +1018,25 @@
         <v>1.08103E-2</v>
       </c>
       <c r="L12" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-1.6666103162368579E-3</v>
       </c>
       <c r="M12">
         <v>1.6794699999999999E-2</v>
       </c>
       <c r="N12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.5892177162616351E-3</v>
       </c>
       <c r="O12" s="1">
         <v>1.2203200000000001E-2</v>
       </c>
       <c r="P12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-6.5602841462363503E-4</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.21503488089144979</v>
       </c>
     </row>
@@ -1045,7 +1051,7 @@
         <v>450</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="F13">
@@ -1053,7 +1059,7 @@
         <v>4.5</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.5915494309189533E-3</v>
       </c>
       <c r="H13">
@@ -1071,25 +1077,25 @@
         <v>3.141E-2</v>
       </c>
       <c r="L13" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-5.1536574281887421E-3</v>
       </c>
       <c r="M13">
         <v>1.0447200000000001</v>
       </c>
       <c r="N13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-0.17141448546250693</v>
       </c>
       <c r="O13" s="1">
         <v>0.790242</v>
       </c>
       <c r="P13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-4.2482398586355268E-2</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.241914241002881</v>
       </c>
     </row>
@@ -1104,7 +1110,7 @@
         <v>500</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.1622776601683795</v>
       </c>
       <c r="F14">
@@ -1112,7 +1118,7 @@
         <v>5</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.5915494309189536E-3</v>
       </c>
       <c r="H14">
@@ -1130,25 +1136,25 @@
         <v>7.8429699999999995E-3</v>
       </c>
       <c r="L14" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-1.3610434427840292E-3</v>
       </c>
       <c r="M14">
         <v>9.4900699999999998E-3</v>
       </c>
       <c r="N14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-1.6468758066219089E-3</v>
       </c>
       <c r="O14" s="1">
         <v>7.52638E-3</v>
       </c>
       <c r="P14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-4.0460855671094746E-4</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.26879360111431222</v>
       </c>
     </row>
@@ -1189,25 +1195,25 @@
         <v>0.22534799999999999</v>
       </c>
       <c r="L15" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-4.1152549283459607E-2</v>
       </c>
       <c r="M15">
         <v>0.41286800000000001</v>
       </c>
       <c r="N15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-7.539703355504998E-2</v>
       </c>
       <c r="O15" s="1">
         <v>0.34503899999999998</v>
       </c>
       <c r="P15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-1.8548855066976237E-2</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.29567296122574344</v>
       </c>
     </row>
@@ -1248,25 +1254,25 @@
         <v>8.1173200000000001E-2</v>
       </c>
       <c r="L16" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-1.6222307135836347E-2</v>
       </c>
       <c r="M16">
         <v>0.35063800000000001</v>
       </c>
       <c r="N16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-7.0074326618827218E-2</v>
       </c>
       <c r="O16" s="1">
         <v>0.33291100000000001</v>
       </c>
       <c r="P16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-1.789686930811336E-2</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.34943168144860592</v>
       </c>
     </row>
@@ -1307,25 +1313,25 @@
         <v>0.108359999999999</v>
       </c>
       <c r="L17" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.3414600205555289E-2</v>
       </c>
       <c r="M17">
         <v>9.5224399999999904E-2</v>
       </c>
       <c r="N17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.0576238979456419E-2</v>
       </c>
       <c r="O17" s="1">
         <v>0.106234</v>
       </c>
       <c r="P17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-5.7110038841555692E-3</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.40319040167146836</v>
       </c>
     </row>
@@ -1366,25 +1372,25 @@
         <v>4.4851299999999997E-2</v>
       </c>
       <c r="L18" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-1.0384335197398066E-2</v>
       </c>
       <c r="M18">
         <v>8.2739899999999894E-2</v>
       </c>
       <c r="N18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-1.9156609859673972E-2</v>
       </c>
       <c r="O18" s="1">
         <v>0.111942</v>
       </c>
       <c r="P18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-6.0178586591876681E-3</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="4"/>
+        <f>B18*C18*$T$3</f>
         <v>0.45694912189433079</v>
       </c>
     </row>
@@ -1425,25 +1431,25 @@
         <v>9.9272299999999994E-2</v>
       </c>
       <c r="L19" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.445430605162394E-2</v>
       </c>
       <c r="M19">
         <v>5.8999000000000003E-2</v>
       </c>
       <c r="N19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-1.4533556719646477E-2</v>
       </c>
       <c r="O19" s="1">
         <v>9.8087099999999997E-2</v>
       </c>
       <c r="P19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-5.2730369663719313E-3</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.51070784211719322</v>
       </c>
     </row>
@@ -1484,25 +1490,25 @@
         <v>4.4715600000000001E-2</v>
       </c>
       <c r="L20" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-1.1653476462590408E-2</v>
       </c>
       <c r="M20">
         <v>3.3607699999999997E-2</v>
       </c>
       <c r="N20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-8.7586108855030372E-3</v>
       </c>
       <c r="O20" s="1">
         <v>6.6814899999999899E-2</v>
       </c>
       <c r="P20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-3.5918835158185265E-3</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.56446656234005566</v>
       </c>
     </row>
@@ -1543,25 +1549,25 @@
         <v>5.5341300000000003E-2</v>
       </c>
       <c r="L21" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-1.5188061609947349E-2</v>
       </c>
       <c r="M21">
         <v>3.7790499999999998E-2</v>
       </c>
       <c r="N21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-1.0371358140678213E-2</v>
       </c>
       <c r="O21" s="1">
         <v>8.3875500000000006E-2</v>
       </c>
       <c r="P21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-4.509039538052699E-3</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.61822528256291809</v>
       </c>
     </row>
@@ -1602,25 +1608,25 @@
         <v>6.01229E-2</v>
       </c>
       <c r="L22" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-1.7308844113555974E-2</v>
       </c>
       <c r="M22">
         <v>3.3136199999999998E-2</v>
       </c>
       <c r="N22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-9.5396150271462865E-3</v>
       </c>
       <c r="O22" s="1">
         <v>7.4602299999999996E-2</v>
       </c>
       <c r="P22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-4.0105241736820511E-3</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.67198400278578063</v>
       </c>
     </row>
@@ -1661,25 +1667,25 @@
         <v>3.3899199999999997E-2</v>
       </c>
       <c r="L23" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-1.0203898518788166E-2</v>
       </c>
       <c r="M23">
         <v>3.2453999999999997E-2</v>
       </c>
       <c r="N23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-9.768883116083895E-3</v>
       </c>
       <c r="O23" s="1">
         <v>6.81866E-2</v>
       </c>
       <c r="P23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-3.6656243523482323E-3</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.72574272300864306</v>
       </c>
     </row>
@@ -1720,25 +1726,25 @@
         <v>5.5140499999999898E-2</v>
       </c>
       <c r="L24" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-1.7304917155555721E-2</v>
       </c>
       <c r="M24">
         <v>4.70058E-2</v>
       </c>
       <c r="N24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-1.4751978578914277E-2</v>
       </c>
       <c r="O24" s="1">
         <v>8.8220599999999996E-2</v>
       </c>
       <c r="P24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-4.7426265532930587E-3</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.7795014432315055</v>
       </c>
     </row>
@@ -1779,25 +1785,25 @@
         <v>6.4735799999999996E-2</v>
       </c>
       <c r="L25" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.1129992209744757E-2</v>
       </c>
       <c r="M25">
         <v>5.0260100000000002E-2</v>
       </c>
       <c r="N25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-1.6405072949758751E-2</v>
       </c>
       <c r="O25" s="1">
         <v>8.3450300000000005E-2</v>
       </c>
       <c r="P25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-4.4861813302139383E-3</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.83326016345436793</v>
       </c>
     </row>
@@ -1838,25 +1844,25 @@
         <v>3.6693299999999998E-2</v>
       </c>
       <c r="L26" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-1.2429730129710331E-2</v>
       </c>
       <c r="M26">
         <v>5.0893800000000003E-2</v>
       </c>
       <c r="N26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-1.7240101034124804E-2</v>
       </c>
       <c r="O26" s="1">
         <v>7.50445E-2</v>
       </c>
       <c r="P26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-4.034296279764601E-3</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.88701888367723036</v>
       </c>
     </row>
@@ -1897,25 +1903,25 @@
         <v>6.65467E-2</v>
       </c>
       <c r="L27" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.3350330505632635E-2</v>
       </c>
       <c r="M27">
         <v>7.0622000000000004E-2</v>
       </c>
       <c r="N27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.4780297760351573E-2</v>
       </c>
       <c r="O27" s="1">
         <v>9.3119599999999997E-2</v>
       </c>
       <c r="P27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-5.0059905236648616E-3</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.9407776039000928</v>
       </c>
     </row>
@@ -1956,25 +1962,25 @@
         <v>3.3714800000000003E-2</v>
       </c>
       <c r="L28" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-1.2233188809760355E-2</v>
       </c>
       <c r="M28">
         <v>6.9085399999999894E-2</v>
       </c>
       <c r="N28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.5067173532033905E-2</v>
       </c>
       <c r="O28" s="1">
         <v>8.1768599999999997E-2</v>
       </c>
       <c r="P28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-4.3957752904151505E-3</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.99453632412295523</v>
       </c>
     </row>
@@ -2015,25 +2021,25 @@
         <v>1.82910999999999E-2</v>
       </c>
       <c r="L29" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-6.8524829962245794E-3</v>
       </c>
       <c r="M29">
         <v>6.6054999999999905E-2</v>
       </c>
       <c r="N29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.4746503179995539E-2</v>
       </c>
       <c r="O29" s="1">
         <v>7.0286500000000002E-2</v>
       </c>
       <c r="P29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-3.7785122889442213E-3</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.0482950443458177</v>
       </c>
     </row>
@@ -2074,25 +2080,25 @@
         <v>3.6537899999999998E-2</v>
       </c>
       <c r="L30" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-1.4113718676172261E-2</v>
       </c>
       <c r="M30">
         <v>7.2619799999999998E-2</v>
       </c>
       <c r="N30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.8051295436242765E-2</v>
       </c>
       <c r="O30" s="1">
         <v>6.96518E-2</v>
       </c>
       <c r="P30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-3.7443916292187705E-3</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.1020537645686801</v>
       </c>
     </row>
@@ -2133,25 +2139,25 @@
         <v>3.0731499999999998E-2</v>
       </c>
       <c r="L31" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-1.2224388493004395E-2</v>
       </c>
       <c r="M31">
         <v>7.3526899999999895E-2</v>
       </c>
       <c r="N31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.9247560004760056E-2</v>
       </c>
       <c r="O31" s="1">
         <v>6.3677199999999906E-2</v>
       </c>
       <c r="P31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-3.4232047793752514E-3</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.1558124847915425</v>
       </c>
     </row>
@@ -2192,25 +2198,25 @@
         <v>1.8235600000000001E-2</v>
       </c>
       <c r="L32" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-7.4612634864694195E-3</v>
       </c>
       <c r="M32">
         <v>6.7724099999999995E-2</v>
       </c>
       <c r="N32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.770993849854151E-2</v>
       </c>
       <c r="O32" s="1">
         <v>5.3056199999999998E-2</v>
       </c>
       <c r="P32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-2.8522334118882345E-3</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.209571205014405</v>
       </c>
     </row>
@@ -2251,25 +2257,25 @@
         <v>2.87582999999999E-2</v>
       </c>
       <c r="L33" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-1.2090642247120524E-2</v>
       </c>
       <c r="M33">
         <v>9.0136399999999894E-2</v>
       </c>
       <c r="N33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-3.789538901268006E-2</v>
       </c>
       <c r="O33" s="1">
         <v>6.4156400000000002E-2</v>
       </c>
       <c r="P33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-3.4489659581060524E-3</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.2633299252372674</v>
       </c>
     </row>
@@ -2310,25 +2316,25 @@
         <v>2.8740600000000002E-2</v>
       </c>
       <c r="L34" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-1.2403866603021174E-2</v>
       </c>
       <c r="M34">
         <v>7.9569200000000007E-2</v>
       </c>
       <c r="N34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-3.4340471058680488E-2</v>
       </c>
       <c r="O34" s="1">
         <v>5.1546399999999999E-2</v>
       </c>
       <c r="P34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-2.7710684960957567E-3</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.31708864546013</v>
       </c>
     </row>

--- a/L_R_Curve_Calculation_For_Zh.xlsx
+++ b/L_R_Curve_Calculation_For_Zh.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PNDC\TN-006Harmonic\Harmonic_OpenDSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F97498-28B9-4E77-B2EF-8BF325218FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B44953E-5617-420F-960C-B623114ECB23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10155" yWindow="1260" windowWidth="17205" windowHeight="14415" xr2:uid="{B34353C0-2A4C-4364-8829-8249301E7BD1}"/>
+    <workbookView xWindow="-19320" yWindow="690" windowWidth="19440" windowHeight="15000" xr2:uid="{B34353C0-2A4C-4364-8829-8249301E7BD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>h</t>
   </si>
@@ -92,17 +92,59 @@
   <si>
     <t>L=X/2piF</t>
   </si>
+  <si>
+    <t>R in Zeq</t>
+  </si>
+  <si>
+    <t>X in Zeq</t>
+  </si>
+  <si>
+    <t>R p.u</t>
+  </si>
+  <si>
+    <t>Z confirmed</t>
+  </si>
+  <si>
+    <t>X p.u</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z </t>
+  </si>
+  <si>
+    <t>Zp.u</t>
+  </si>
+  <si>
+    <t>Correct Zpu</t>
+  </si>
+  <si>
+    <t>X from L</t>
+  </si>
+  <si>
+    <t>L from Xeq</t>
+  </si>
+  <si>
+    <t>Confirmed</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,18 +170,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -452,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B68F4564-41EA-4CD1-AC49-16F5927E790C}">
-  <dimension ref="B1:T35"/>
+  <dimension ref="B1:AE35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,12 +512,12 @@
     <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -494,7 +540,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:31" x14ac:dyDescent="0.25">
       <c r="F3" t="s">
         <v>18</v>
       </c>
@@ -517,17 +563,17 @@
         <v>15</v>
       </c>
       <c r="R3">
-        <v>5.2999999999999999E-2</v>
+        <v>2.12E-2</v>
       </c>
       <c r="S3">
-        <v>8.9999999999999993E-3</v>
+        <v>2.1700000000000001E-2</v>
       </c>
       <c r="T3">
         <f>SQRT(R3^2+S3^2)</f>
-        <v>5.3758720222862447E-2</v>
+        <v>3.0336941177383062E-2</v>
       </c>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -573,8 +619,41 @@
       <c r="Q4" t="s">
         <v>17</v>
       </c>
+      <c r="S4" t="s">
+        <v>19</v>
+      </c>
+      <c r="T4" t="s">
+        <v>20</v>
+      </c>
+      <c r="V4" t="s">
+        <v>22</v>
+      </c>
+      <c r="W4" t="s">
+        <v>21</v>
+      </c>
+      <c r="X4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1</v>
       </c>
@@ -604,35 +683,88 @@
       </c>
       <c r="J5">
         <f>SQRT(($R$3*SQRT(C5))^2+(B5^2*C5^2*$S$3^2))</f>
-        <v>5.3758720222862447E-2</v>
+        <v>3.0336941177383062E-2</v>
       </c>
       <c r="K5">
         <v>26.994</v>
       </c>
       <c r="L5" s="5">
         <f>I5-(J5*K5)</f>
-        <v>228.54883710630406</v>
+        <v>229.18108460985772</v>
       </c>
       <c r="M5">
         <v>162.08099999999999</v>
       </c>
       <c r="N5">
         <f>I5-(J5*M5)</f>
-        <v>221.28673286755824</v>
+        <v>225.08295823702858</v>
       </c>
       <c r="O5">
         <v>125.35599999999999</v>
       </c>
       <c r="P5">
         <f>I5-($T$3*O5)</f>
-        <v>223.26102186774287</v>
+        <v>226.19708240176797</v>
       </c>
       <c r="Q5">
         <f>B5*C5*$T$3</f>
-        <v>5.3758720222862447E-2</v>
+        <v>3.0336941177383062E-2</v>
+      </c>
+      <c r="R5">
+        <f>J5/$J$5</f>
+        <v>1</v>
+      </c>
+      <c r="S5" s="1">
+        <f>($R$3*SQRT(C5))</f>
+        <v>2.12E-2</v>
+      </c>
+      <c r="T5" s="1">
+        <f>SQRT(B5^2*C5^2*$S$3^2)</f>
+        <v>2.1700000000000001E-2</v>
+      </c>
+      <c r="U5" s="1">
+        <f>B5*C5*$S$3</f>
+        <v>2.1700000000000001E-2</v>
+      </c>
+      <c r="V5" s="7">
+        <f>SQRT(S5^2+T5^2)</f>
+        <v>3.0336941177383062E-2</v>
+      </c>
+      <c r="W5" s="2">
+        <f>S5/$S$5</f>
+        <v>1</v>
+      </c>
+      <c r="X5" s="6">
+        <f>T5/(2*PI()*D5)</f>
+        <v>6.9073245301882574E-5</v>
+      </c>
+      <c r="Y5" s="2">
+        <f>X5/$X$5</f>
+        <v>1</v>
+      </c>
+      <c r="Z5" s="2"/>
+      <c r="AA5">
+        <f>H5*2*PI()*D5</f>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="AB5">
+        <f>AA5/$AA$5</f>
+        <v>1</v>
+      </c>
+      <c r="AC5" s="4">
+        <f t="shared" ref="AC5:AC34" si="0">SQRT((W5*$R$3)^2+(AB5*$S$3)^2)</f>
+        <v>3.0336941177383062E-2</v>
+      </c>
+      <c r="AD5">
+        <f t="shared" ref="AD5:AD34" si="1">AC5/$AC$5</f>
+        <v>1</v>
+      </c>
+      <c r="AE5">
+        <f t="shared" ref="AE5:AE34" si="2">J5/$J$5</f>
+        <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>1</v>
       </c>
@@ -662,35 +794,88 @@
       </c>
       <c r="J6">
         <f>SQRT(($R$3*SQRT(C6))^2+(B6^2*C6^2*$S$3^2))</f>
-        <v>7.7084369362407049E-2</v>
+        <v>5.2748838849779434E-2</v>
       </c>
       <c r="K6">
         <v>1.58592E-2</v>
       </c>
       <c r="L6" s="5">
-        <f t="shared" ref="L6:L34" si="0">I6-(J6*K6)</f>
-        <v>-1.222496430592286E-3</v>
+        <f t="shared" ref="L6:L34" si="3">I6-(J6*K6)</f>
+        <v>-8.3655438508642205E-4</v>
       </c>
       <c r="M6">
         <v>4.2757799999999999E-2</v>
       </c>
       <c r="N6">
-        <f t="shared" ref="N6:N34" si="1">I6-(J6*M6)</f>
-        <v>-3.2959580483239281E-3</v>
+        <f t="shared" ref="N6:N34" si="4">I6-(J6*M6)</f>
+        <v>-2.2554243017710988E-3</v>
       </c>
       <c r="O6" s="1">
         <v>2.85293E-2</v>
       </c>
       <c r="P6">
-        <f t="shared" ref="P6:P34" si="2">I6-($T$3*O6)</f>
-        <v>-1.5336986568541095E-3</v>
+        <f t="shared" ref="P6:P34" si="5">I6-($T$3*O6)</f>
+        <v>-8.6549169593191466E-4</v>
       </c>
       <c r="Q6">
-        <f t="shared" ref="Q6:Q34" si="3">B6*C6*$T$3</f>
-        <v>0.10751744044572489</v>
+        <f t="shared" ref="Q6:Q34" si="6">B6*C6*$T$3</f>
+        <v>6.0673882354766125E-2</v>
+      </c>
+      <c r="R6">
+        <f t="shared" ref="R6:R34" si="7">J6/$J$5</f>
+        <v>1.7387659006671705</v>
+      </c>
+      <c r="S6" s="1">
+        <f t="shared" ref="S6:S34" si="8">($R$3*SQRT(C6))</f>
+        <v>2.9981327522309618E-2</v>
+      </c>
+      <c r="T6" s="1">
+        <f>SQRT(B6^2*C6^2*$S$3^2)</f>
+        <v>4.3400000000000001E-2</v>
+      </c>
+      <c r="U6" s="1">
+        <f t="shared" ref="U6:U34" si="9">B6*C6*$S$3</f>
+        <v>4.3400000000000001E-2</v>
+      </c>
+      <c r="V6" s="7">
+        <f t="shared" ref="V6:V34" si="10">SQRT(S6^2+T6^2)</f>
+        <v>5.2748838849779434E-2</v>
+      </c>
+      <c r="W6" s="2">
+        <f>S6/$S$5</f>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="X6" s="6">
+        <f t="shared" ref="X6:X34" si="11">T6/(2*PI()*D6)</f>
+        <v>6.9073245301882574E-5</v>
+      </c>
+      <c r="Y6" s="2">
+        <f t="shared" ref="Y6:Y34" si="12">X6/$X$5</f>
+        <v>1</v>
+      </c>
+      <c r="Z6" s="2"/>
+      <c r="AA6">
+        <f t="shared" ref="AA6:AA34" si="13">H6*2*PI()*D6</f>
+        <v>628.31853071795865</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" ref="AB6:AB34" si="14">AA6/$AA$5</f>
+        <v>2</v>
+      </c>
+      <c r="AC6" s="4">
+        <f t="shared" si="0"/>
+        <v>5.2748838849779434E-2</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" si="1"/>
+        <v>1.7387659006671705</v>
+      </c>
+      <c r="AE6">
+        <f t="shared" si="2"/>
+        <v>1.7387659006671705</v>
       </c>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>1</v>
       </c>
@@ -701,7 +886,7 @@
         <v>150</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" ref="E7:E14" si="4">SQRT(C7)</f>
+        <f t="shared" ref="E7:E14" si="15">SQRT(C7)</f>
         <v>1.7320508075688772</v>
       </c>
       <c r="F7">
@@ -709,7 +894,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" ref="G6:G14" si="5">F7/(2*PI()*D7)</f>
+        <f t="shared" ref="G7:G14" si="16">F7/(2*PI()*D7)</f>
         <v>3.1830988618379067E-3</v>
       </c>
       <c r="H7">
@@ -719,36 +904,89 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <f t="shared" ref="J7:J34" si="6">SQRT(($R$3*SQRT(C7))^2+(B7^2*C7^2*$S$3^2))</f>
-        <v>9.5686989711245479E-2</v>
+        <f t="shared" ref="J7:J34" si="17">SQRT(($R$3*SQRT(C7))^2+(B7^2*C7^2*$S$3^2))</f>
+        <v>7.474175539817085E-2</v>
       </c>
       <c r="K7">
         <v>0.27999299999999999</v>
       </c>
       <c r="L7" s="5">
-        <f t="shared" si="0"/>
-        <v>-2.6791687310220753E-2</v>
+        <f t="shared" si="3"/>
+        <v>-2.0927168319200051E-2</v>
       </c>
       <c r="M7">
         <v>2.7269600000000001</v>
       </c>
       <c r="N7">
-        <f t="shared" si="1"/>
-        <v>-0.26093459346297798</v>
+        <f t="shared" si="4"/>
+        <v>-0.203817777300596</v>
       </c>
       <c r="O7" s="1">
         <v>1.8226199999999999</v>
       </c>
       <c r="P7">
+        <f t="shared" si="5"/>
+        <v>-5.5292715728721915E-2</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="6"/>
+        <v>9.101082353214919E-2</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="7"/>
+        <v>2.4637208794765595</v>
+      </c>
+      <c r="S7" s="1">
+        <f t="shared" si="8"/>
+        <v>3.6719477120460198E-2</v>
+      </c>
+      <c r="T7" s="1">
+        <f t="shared" ref="T7:T34" si="18">SQRT(B7^2*C7^2*$S$3^2)</f>
+        <v>6.5100000000000005E-2</v>
+      </c>
+      <c r="U7" s="1">
+        <f t="shared" si="9"/>
+        <v>6.5100000000000005E-2</v>
+      </c>
+      <c r="V7" s="7">
+        <f t="shared" si="10"/>
+        <v>7.474175539817085E-2</v>
+      </c>
+      <c r="W7" s="2">
+        <f>S7/$S$5</f>
+        <v>1.7320508075688772</v>
+      </c>
+      <c r="X7" s="6">
+        <f t="shared" si="11"/>
+        <v>6.9073245301882588E-5</v>
+      </c>
+      <c r="Y7" s="2">
+        <f t="shared" si="12"/>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="Z7" s="2"/>
+      <c r="AA7">
+        <f t="shared" si="13"/>
+        <v>942.47779607693792</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="AC7" s="4">
+        <f t="shared" si="0"/>
+        <v>7.474175539817085E-2</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" si="1"/>
+        <v>2.4637208794765595</v>
+      </c>
+      <c r="AE7">
         <f t="shared" si="2"/>
-        <v>-9.7981718652593544E-2</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="3"/>
-        <v>0.16127616066858735</v>
+        <v>2.4637208794765595</v>
       </c>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>1</v>
       </c>
@@ -759,7 +997,7 @@
         <v>200</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="F8">
@@ -767,7 +1005,7 @@
         <v>4</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>3.1830988618379067E-3</v>
       </c>
       <c r="H8">
@@ -777,36 +1015,89 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <f t="shared" si="6"/>
-        <v>0.11194641575325223</v>
+        <f t="shared" si="17"/>
+        <v>9.6602277405866577E-2</v>
       </c>
       <c r="K8">
         <v>1.28382999999999E-2</v>
       </c>
       <c r="L8" s="5">
-        <f t="shared" si="0"/>
-        <v>-1.4372016693649668E-3</v>
+        <f t="shared" si="3"/>
+        <v>-1.2402090180197271E-3</v>
       </c>
       <c r="M8">
         <v>4.3957700000000002E-2</v>
       </c>
       <c r="N8">
-        <f t="shared" si="1"/>
-        <v>-4.920906959756736E-3</v>
+        <f t="shared" si="4"/>
+        <v>-4.2464139295238616E-3</v>
       </c>
       <c r="O8" s="1">
         <v>2.95675E-2</v>
       </c>
       <c r="P8">
+        <f t="shared" si="5"/>
+        <v>-8.9698750826227365E-4</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="6"/>
+        <v>0.12134776470953225</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="7"/>
+        <v>3.1843117221681516</v>
+      </c>
+      <c r="S8" s="1">
+        <f t="shared" si="8"/>
+        <v>4.24E-2</v>
+      </c>
+      <c r="T8" s="1">
+        <f t="shared" si="18"/>
+        <v>8.6800000000000002E-2</v>
+      </c>
+      <c r="U8" s="1">
+        <f t="shared" si="9"/>
+        <v>8.6800000000000002E-2</v>
+      </c>
+      <c r="V8" s="7">
+        <f t="shared" si="10"/>
+        <v>9.6602277405866577E-2</v>
+      </c>
+      <c r="W8" s="2">
+        <f>S8/$S$5</f>
+        <v>2</v>
+      </c>
+      <c r="X8" s="6">
+        <f t="shared" si="11"/>
+        <v>6.9073245301882574E-5</v>
+      </c>
+      <c r="Y8" s="2">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Z8" s="2"/>
+      <c r="AA8">
+        <f t="shared" si="13"/>
+        <v>1256.6370614359173</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="AC8" s="4">
+        <f t="shared" si="0"/>
+        <v>9.6602277405866577E-2</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" si="1"/>
+        <v>3.1843117221681516</v>
+      </c>
+      <c r="AE8">
         <f t="shared" si="2"/>
-        <v>-1.5895109601894854E-3</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="3"/>
-        <v>0.21503488089144979</v>
+        <v>3.1843117221681516</v>
       </c>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>1</v>
       </c>
@@ -817,7 +1108,7 @@
         <v>250</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>2.2360679774997898</v>
       </c>
       <c r="F9">
@@ -825,7 +1116,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>3.1830988618379071E-3</v>
       </c>
       <c r="H9">
@@ -835,36 +1126,89 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <f t="shared" si="6"/>
-        <v>0.1267675037223657</v>
+        <f t="shared" si="17"/>
+        <v>0.11840375838629448</v>
       </c>
       <c r="K9">
         <v>0.23080599999999901</v>
       </c>
       <c r="L9" s="5">
-        <f t="shared" si="0"/>
-        <v>-2.9258700464144211E-2</v>
+        <f t="shared" si="3"/>
+        <v>-2.7328297858106965E-2</v>
       </c>
       <c r="M9">
         <v>2.7387700000000001</v>
       </c>
       <c r="N9">
-        <f t="shared" si="1"/>
-        <v>-0.34718703616970353</v>
+        <f t="shared" si="4"/>
+        <v>-0.32428066135563177</v>
       </c>
       <c r="O9" s="1">
         <v>1.85982</v>
       </c>
       <c r="P9">
+        <f t="shared" si="5"/>
+        <v>-5.6421249940520571E-2</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="6"/>
+        <v>0.15168470588691532</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="7"/>
+        <v>3.9029563888454053</v>
+      </c>
+      <c r="S9" s="1">
+        <f t="shared" si="8"/>
+        <v>4.7404641122995542E-2</v>
+      </c>
+      <c r="T9" s="1">
+        <f t="shared" si="18"/>
+        <v>0.1085</v>
+      </c>
+      <c r="U9" s="1">
+        <f t="shared" si="9"/>
+        <v>0.1085</v>
+      </c>
+      <c r="V9" s="7">
+        <f t="shared" si="10"/>
+        <v>0.11840375838629448</v>
+      </c>
+      <c r="W9" s="2">
+        <f>S9/$S$5</f>
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="X9" s="6">
+        <f t="shared" si="11"/>
+        <v>6.9073245301882588E-5</v>
+      </c>
+      <c r="Y9" s="2">
+        <f t="shared" si="12"/>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="Z9" s="2"/>
+      <c r="AA9">
+        <f t="shared" si="13"/>
+        <v>1570.7963267948965</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="14"/>
+        <v>4.9999999999999991</v>
+      </c>
+      <c r="AC9" s="4">
+        <f t="shared" si="0"/>
+        <v>0.11840375838629447</v>
+      </c>
+      <c r="AD9">
+        <f t="shared" si="1"/>
+        <v>3.9029563888454049</v>
+      </c>
+      <c r="AE9">
         <f t="shared" si="2"/>
-        <v>-9.9981543044884033E-2</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="3"/>
-        <v>0.26879360111431222</v>
+        <v>3.9029563888454053</v>
       </c>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>1</v>
       </c>
@@ -875,15 +1219,15 @@
         <v>300</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>2.4494897427831779</v>
       </c>
       <c r="F10">
-        <f t="shared" ref="F10:F14" si="7">B10*C10</f>
+        <f t="shared" ref="F10:F14" si="19">B10*C10</f>
         <v>6</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>3.1830988618379067E-3</v>
       </c>
       <c r="H10">
@@ -893,36 +1237,89 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <f t="shared" si="6"/>
-        <v>0.14060583202698243</v>
+        <f t="shared" si="17"/>
+        <v>0.14017374932561374</v>
       </c>
       <c r="K10">
         <v>1.08366E-2</v>
       </c>
       <c r="L10" s="5">
-        <f t="shared" si="0"/>
-        <v>-1.5236891593435977E-3</v>
+        <f t="shared" si="3"/>
+        <v>-1.5190068519419459E-3</v>
       </c>
       <c r="M10">
         <v>2.5647900000000001E-2</v>
       </c>
       <c r="N10">
-        <f t="shared" si="1"/>
-        <v>-3.606244319244843E-3</v>
+        <f t="shared" si="4"/>
+        <v>-3.5951623053284091E-3</v>
       </c>
       <c r="O10" s="1">
         <v>1.77080999999999E-2</v>
       </c>
       <c r="P10">
+        <f t="shared" si="5"/>
+        <v>-5.3720958806321398E-4</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="6"/>
+        <v>0.18202164706429838</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="7"/>
+        <v>4.6205630457600888</v>
+      </c>
+      <c r="S10" s="1">
+        <f t="shared" si="8"/>
+        <v>5.192918254700337E-2</v>
+      </c>
+      <c r="T10" s="1">
+        <f t="shared" si="18"/>
+        <v>0.13020000000000001</v>
+      </c>
+      <c r="U10" s="1">
+        <f t="shared" si="9"/>
+        <v>0.13020000000000001</v>
+      </c>
+      <c r="V10" s="7">
+        <f t="shared" si="10"/>
+        <v>0.14017374932561374</v>
+      </c>
+      <c r="W10" s="2">
+        <f>S10/$S$5</f>
+        <v>2.4494897427831779</v>
+      </c>
+      <c r="X10" s="6">
+        <f t="shared" si="11"/>
+        <v>6.9073245301882588E-5</v>
+      </c>
+      <c r="Y10" s="2">
+        <f t="shared" si="12"/>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="Z10" s="2"/>
+      <c r="AA10">
+        <f t="shared" si="13"/>
+        <v>1884.9555921538758</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="AC10" s="4">
+        <f t="shared" si="0"/>
+        <v>0.14017374932561374</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" si="1"/>
+        <v>4.6205630457600888</v>
+      </c>
+      <c r="AE10">
         <f t="shared" si="2"/>
-        <v>-9.5196479357846512E-4</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" si="3"/>
-        <v>0.32255232133717471</v>
+        <v>4.6205630457600888</v>
       </c>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>1</v>
       </c>
@@ -933,7 +1330,7 @@
         <v>350</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>2.6457513110645907</v>
       </c>
       <c r="F11">
@@ -941,47 +1338,100 @@
         <v>7</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>3.1830988618379071E-3</v>
       </c>
       <c r="H11">
-        <f t="shared" ref="H11:H34" si="8">G11/$G$5</f>
+        <f t="shared" ref="H11:H34" si="20">G11/$G$5</f>
         <v>1.0000000000000002</v>
       </c>
       <c r="I11" s="4">
         <v>0</v>
       </c>
       <c r="J11">
-        <f t="shared" si="6"/>
-        <v>0.15372703080460506</v>
+        <f t="shared" si="17"/>
+        <v>0.16192495175234731</v>
       </c>
       <c r="K11">
         <v>0.26271099999999997</v>
       </c>
       <c r="L11" s="5">
-        <f t="shared" si="0"/>
-        <v>-4.0385781989708595E-2</v>
+        <f t="shared" si="3"/>
+        <v>-4.2539465999810906E-2</v>
       </c>
       <c r="M11">
         <v>1.3986000000000001</v>
       </c>
       <c r="N11">
-        <f t="shared" si="1"/>
-        <v>-0.21500262528332065</v>
+        <f t="shared" si="4"/>
+        <v>-0.22646823752083295</v>
       </c>
       <c r="O11" s="1">
         <v>0.98980699999999999</v>
       </c>
       <c r="P11">
+        <f t="shared" si="5"/>
+        <v>-3.0027716735961996E-2</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="6"/>
+        <v>0.21235858824168144</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="7"/>
+        <v>5.3375503748237598</v>
+      </c>
+      <c r="S11" s="1">
+        <f t="shared" si="8"/>
+        <v>5.6089927794569325E-2</v>
+      </c>
+      <c r="T11" s="1">
+        <f t="shared" si="18"/>
+        <v>0.15190000000000001</v>
+      </c>
+      <c r="U11" s="1">
+        <f t="shared" si="9"/>
+        <v>0.15190000000000001</v>
+      </c>
+      <c r="V11" s="7">
+        <f t="shared" si="10"/>
+        <v>0.16192495175234731</v>
+      </c>
+      <c r="W11" s="2">
+        <f>S11/$S$5</f>
+        <v>2.6457513110645907</v>
+      </c>
+      <c r="X11" s="6">
+        <f t="shared" si="11"/>
+        <v>6.9073245301882588E-5</v>
+      </c>
+      <c r="Y11" s="2">
+        <f t="shared" si="12"/>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="Z11" s="2"/>
+      <c r="AA11">
+        <f t="shared" si="13"/>
+        <v>2199.1148575128559</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="14"/>
+        <v>7.0000000000000018</v>
+      </c>
+      <c r="AC11" s="4">
+        <f t="shared" si="0"/>
+        <v>0.16192495175234733</v>
+      </c>
+      <c r="AD11">
+        <f t="shared" si="1"/>
+        <v>5.3375503748237607</v>
+      </c>
+      <c r="AE11">
         <f t="shared" si="2"/>
-        <v>-5.3210757587630809E-2</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="3"/>
-        <v>0.37631104156003714</v>
+        <v>5.3375503748237598</v>
       </c>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>0.5</v>
       </c>
@@ -992,7 +1442,7 @@
         <v>400</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>2.8284271247461903</v>
       </c>
       <c r="F12">
@@ -1012,35 +1462,88 @@
       </c>
       <c r="J12">
         <f>SQRT(($R$3*SQRT(C12))^2+(B12^2*C12^2*$S$3^2))</f>
-        <v>0.1541687387248141</v>
+        <v>0.10549767769955887</v>
       </c>
       <c r="K12">
         <v>1.08103E-2</v>
       </c>
       <c r="L12" s="5">
-        <f t="shared" si="0"/>
-        <v>-1.6666103162368579E-3</v>
+        <f t="shared" si="3"/>
+        <v>-1.1404615452355411E-3</v>
       </c>
       <c r="M12">
         <v>1.6794699999999999E-2</v>
       </c>
       <c r="N12">
-        <f t="shared" si="1"/>
-        <v>-2.5892177162616351E-3</v>
+        <f t="shared" si="4"/>
+        <v>-1.7718018476607811E-3</v>
       </c>
       <c r="O12" s="1">
         <v>1.2203200000000001E-2</v>
       </c>
       <c r="P12">
+        <f t="shared" si="5"/>
+        <v>-3.7020776057584102E-4</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="6"/>
+        <v>0.12134776470953225</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="7"/>
+        <v>3.477531801334341</v>
+      </c>
+      <c r="S12" s="1">
+        <f t="shared" si="8"/>
+        <v>5.9962655044619236E-2</v>
+      </c>
+      <c r="T12" s="1">
+        <f>SQRT(B12^2*C12^2*$S$3^2)</f>
+        <v>8.6800000000000002E-2</v>
+      </c>
+      <c r="U12" s="1">
+        <f t="shared" si="9"/>
+        <v>8.6800000000000002E-2</v>
+      </c>
+      <c r="V12" s="7">
+        <f t="shared" si="10"/>
+        <v>0.10549767769955887</v>
+      </c>
+      <c r="W12" s="2">
+        <f>S12/$S$5</f>
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="X12" s="6">
+        <f t="shared" si="11"/>
+        <v>3.4536622650941287E-5</v>
+      </c>
+      <c r="Y12" s="2">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="Z12" s="2"/>
+      <c r="AA12">
+        <f t="shared" si="13"/>
+        <v>1256.6370614359173</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="AC12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.10549767769955887</v>
+      </c>
+      <c r="AD12">
+        <f t="shared" si="1"/>
+        <v>3.477531801334341</v>
+      </c>
+      <c r="AE12">
         <f t="shared" si="2"/>
-        <v>-6.5602841462363503E-4</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="3"/>
-        <v>0.21503488089144979</v>
+        <v>3.477531801334341</v>
       </c>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>0.5</v>
       </c>
@@ -1051,55 +1554,108 @@
         <v>450</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="F13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>4.5</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>1.5915494309189533E-3</v>
       </c>
       <c r="H13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>0.5</v>
       </c>
       <c r="I13" s="4">
         <v>0</v>
       </c>
       <c r="J13">
-        <f t="shared" si="6"/>
-        <v>0.16407696364816116</v>
+        <f t="shared" si="17"/>
+        <v>0.11653532726173639</v>
       </c>
       <c r="K13">
         <v>3.141E-2</v>
       </c>
       <c r="L13" s="5">
-        <f t="shared" si="0"/>
-        <v>-5.1536574281887421E-3</v>
+        <f t="shared" si="3"/>
+        <v>-3.6603746292911401E-3</v>
       </c>
       <c r="M13">
         <v>1.0447200000000001</v>
       </c>
       <c r="N13">
-        <f t="shared" si="1"/>
-        <v>-0.17141448546250693</v>
+        <f t="shared" si="4"/>
+        <v>-0.12174678709688125</v>
       </c>
       <c r="O13" s="1">
         <v>0.790242</v>
       </c>
       <c r="P13">
+        <f t="shared" si="5"/>
+        <v>-2.3973525069897545E-2</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="6"/>
+        <v>0.13651623529822379</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="7"/>
+        <v>3.8413670837920981</v>
+      </c>
+      <c r="S13" s="1">
+        <f t="shared" si="8"/>
+        <v>6.3600000000000004E-2</v>
+      </c>
+      <c r="T13" s="1">
+        <f t="shared" si="18"/>
+        <v>9.7650000000000001E-2</v>
+      </c>
+      <c r="U13" s="1">
+        <f t="shared" si="9"/>
+        <v>9.7650000000000001E-2</v>
+      </c>
+      <c r="V13" s="7">
+        <f t="shared" si="10"/>
+        <v>0.11653532726173639</v>
+      </c>
+      <c r="W13" s="2">
+        <f>S13/$S$5</f>
+        <v>3</v>
+      </c>
+      <c r="X13" s="6">
+        <f t="shared" si="11"/>
+        <v>3.4536622650941287E-5</v>
+      </c>
+      <c r="Y13" s="2">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="Z13" s="2"/>
+      <c r="AA13">
+        <f t="shared" si="13"/>
+        <v>1413.7166941154069</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="14"/>
+        <v>4.5</v>
+      </c>
+      <c r="AC13" s="4">
+        <f t="shared" si="0"/>
+        <v>0.11653532726173639</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" si="1"/>
+        <v>3.8413670837920981</v>
+      </c>
+      <c r="AE13">
         <f t="shared" si="2"/>
-        <v>-4.2482398586355268E-2</v>
-      </c>
-      <c r="Q13">
-        <f t="shared" si="3"/>
-        <v>0.241914241002881</v>
+        <v>3.8413670837920981</v>
       </c>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>0.5</v>
       </c>
@@ -1110,19 +1666,19 @@
         <v>500</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>3.1622776601683795</v>
       </c>
       <c r="F14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>1.5915494309189536E-3</v>
       </c>
       <c r="H14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>0.50000000000000011</v>
       </c>
       <c r="I14" s="4">
@@ -1130,35 +1686,88 @@
       </c>
       <c r="J14">
         <f>SQRT(($R$3*SQRT(C14))^2+(B14^2*C14^2*$S$3^2))</f>
-        <v>0.17353673962593627</v>
+        <v>0.12754077779282985</v>
       </c>
       <c r="K14">
         <v>7.8429699999999995E-3</v>
       </c>
       <c r="L14" s="5">
-        <f t="shared" si="0"/>
-        <v>-1.3610434427840292E-3</v>
+        <f t="shared" si="3"/>
+        <v>-1.0002984940058308E-3</v>
       </c>
       <c r="M14">
         <v>9.4900699999999998E-3</v>
       </c>
       <c r="N14">
-        <f t="shared" si="1"/>
-        <v>-1.6468758066219089E-3</v>
+        <f t="shared" si="4"/>
+        <v>-1.2103709091084009E-3</v>
       </c>
       <c r="O14" s="1">
         <v>7.52638E-3</v>
       </c>
       <c r="P14">
+        <f t="shared" si="5"/>
+        <v>-2.2832734733863234E-4</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="6"/>
+        <v>0.15168470588691532</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="7"/>
+        <v>4.2041409859710788</v>
+      </c>
+      <c r="S14" s="1">
+        <f t="shared" si="8"/>
+        <v>6.7040286395569651E-2</v>
+      </c>
+      <c r="T14" s="1">
+        <f t="shared" si="18"/>
+        <v>0.1085</v>
+      </c>
+      <c r="U14" s="1">
+        <f t="shared" si="9"/>
+        <v>0.1085</v>
+      </c>
+      <c r="V14" s="7">
+        <f t="shared" si="10"/>
+        <v>0.12754077779282985</v>
+      </c>
+      <c r="W14" s="2">
+        <f>S14/$S$5</f>
+        <v>3.16227766016838</v>
+      </c>
+      <c r="X14" s="6">
+        <f t="shared" si="11"/>
+        <v>3.4536622650941294E-5</v>
+      </c>
+      <c r="Y14" s="2">
+        <f t="shared" si="12"/>
+        <v>0.50000000000000011</v>
+      </c>
+      <c r="Z14" s="2"/>
+      <c r="AA14">
+        <f t="shared" si="13"/>
+        <v>1570.7963267948969</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="14"/>
+        <v>5.0000000000000009</v>
+      </c>
+      <c r="AC14" s="4">
+        <f t="shared" si="0"/>
+        <v>0.12754077779282988</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="1"/>
+        <v>4.2041409859710797</v>
+      </c>
+      <c r="AE14">
         <f t="shared" si="2"/>
-        <v>-4.0460855671094746E-4</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" si="3"/>
-        <v>0.26879360111431222</v>
+        <v>4.2041409859710788</v>
       </c>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>0.5</v>
       </c>
@@ -1169,55 +1778,108 @@
         <v>550</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" ref="E15:E34" si="9">SQRT(C15)</f>
+        <f t="shared" ref="E15:E34" si="21">SQRT(C15)</f>
         <v>3.3166247903553998</v>
       </c>
       <c r="F15">
-        <f t="shared" ref="F15:F34" si="10">B15*C15</f>
+        <f t="shared" ref="F15:F34" si="22">B15*C15</f>
         <v>5.5</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" ref="G15:G34" si="11">F15/(2*PI()*D15)</f>
+        <f t="shared" ref="G15:G34" si="23">F15/(2*PI()*D15)</f>
         <v>1.5915494309189533E-3</v>
       </c>
       <c r="H15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>0.5</v>
       </c>
       <c r="I15" s="4">
         <v>0</v>
       </c>
       <c r="J15">
-        <f t="shared" si="6"/>
-        <v>0.18261777021965853</v>
+        <f t="shared" si="17"/>
+        <v>0.13852170407557077</v>
       </c>
       <c r="K15">
         <v>0.22534799999999999</v>
       </c>
       <c r="L15" s="5">
-        <f t="shared" si="0"/>
-        <v>-4.1152549283459607E-2</v>
+        <f t="shared" si="3"/>
+        <v>-3.1215588970021722E-2</v>
       </c>
       <c r="M15">
         <v>0.41286800000000001</v>
       </c>
       <c r="N15">
-        <f t="shared" si="1"/>
-        <v>-7.539703355504998E-2</v>
+        <f t="shared" si="4"/>
+        <v>-5.7191178918272752E-2</v>
       </c>
       <c r="O15" s="1">
         <v>0.34503899999999998</v>
       </c>
       <c r="P15">
+        <f t="shared" si="5"/>
+        <v>-1.0467427846903073E-2</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="6"/>
+        <v>0.16685317647560685</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="7"/>
+        <v>4.566106492596627</v>
+      </c>
+      <c r="S15" s="1">
+        <f t="shared" si="8"/>
+        <v>7.0312445555534481E-2</v>
+      </c>
+      <c r="T15" s="1">
+        <f t="shared" si="18"/>
+        <v>0.11935</v>
+      </c>
+      <c r="U15" s="1">
+        <f t="shared" si="9"/>
+        <v>0.11935</v>
+      </c>
+      <c r="V15" s="7">
+        <f t="shared" si="10"/>
+        <v>0.13852170407557077</v>
+      </c>
+      <c r="W15" s="2">
+        <f>S15/$S$5</f>
+        <v>3.3166247903553998</v>
+      </c>
+      <c r="X15" s="6">
+        <f t="shared" si="11"/>
+        <v>3.4536622650941287E-5</v>
+      </c>
+      <c r="Y15" s="2">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="Z15" s="2"/>
+      <c r="AA15">
+        <f t="shared" si="13"/>
+        <v>1727.8759594743863</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="14"/>
+        <v>5.5</v>
+      </c>
+      <c r="AC15" s="4">
+        <f t="shared" si="0"/>
+        <v>0.13852170407557077</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="1"/>
+        <v>4.566106492596627</v>
+      </c>
+      <c r="AE15">
         <f t="shared" si="2"/>
-        <v>-1.8548855066976237E-2</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" si="3"/>
-        <v>0.29567296122574344</v>
+        <v>4.566106492596627</v>
       </c>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>0.5</v>
       </c>
@@ -1228,55 +1890,108 @@
         <v>650</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>3.6055512754639891</v>
       </c>
       <c r="F16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>6.5</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>1.5915494309189536E-3</v>
       </c>
       <c r="H16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>0.50000000000000011</v>
       </c>
       <c r="I16" s="4">
         <v>0</v>
       </c>
       <c r="J16">
-        <f t="shared" si="6"/>
-        <v>0.19984806729112992</v>
+        <f t="shared" si="17"/>
+        <v>0.16043011718502234</v>
       </c>
       <c r="K16">
         <v>8.1173200000000001E-2</v>
       </c>
       <c r="L16" s="5">
-        <f t="shared" si="0"/>
-        <v>-1.6222307135836347E-2</v>
+        <f t="shared" si="3"/>
+        <v>-1.3022625988283255E-2</v>
       </c>
       <c r="M16">
         <v>0.35063800000000001</v>
       </c>
       <c r="N16">
-        <f t="shared" si="1"/>
-        <v>-7.0074326618827218E-2</v>
+        <f t="shared" si="4"/>
+        <v>-5.6252895429521867E-2</v>
       </c>
       <c r="O16" s="1">
         <v>0.33291100000000001</v>
       </c>
       <c r="P16">
+        <f t="shared" si="5"/>
+        <v>-1.0099501424303773E-2</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="6"/>
+        <v>0.19719011765298991</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="7"/>
+        <v>5.2882759750553543</v>
+      </c>
+      <c r="S16" s="1">
+        <f t="shared" si="8"/>
+        <v>7.6437687039836569E-2</v>
+      </c>
+      <c r="T16" s="1">
+        <f t="shared" si="18"/>
+        <v>0.14105000000000001</v>
+      </c>
+      <c r="U16" s="1">
+        <f t="shared" si="9"/>
+        <v>0.14105000000000001</v>
+      </c>
+      <c r="V16" s="7">
+        <f t="shared" si="10"/>
+        <v>0.16043011718502234</v>
+      </c>
+      <c r="W16" s="2">
+        <f>S16/$S$5</f>
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="X16" s="6">
+        <f t="shared" si="11"/>
+        <v>3.4536622650941294E-5</v>
+      </c>
+      <c r="Y16" s="2">
+        <f t="shared" si="12"/>
+        <v>0.50000000000000011</v>
+      </c>
+      <c r="Z16" s="2"/>
+      <c r="AA16">
+        <f t="shared" si="13"/>
+        <v>2042.0352248333661</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="14"/>
+        <v>6.5000000000000018</v>
+      </c>
+      <c r="AC16" s="4">
+        <f t="shared" si="0"/>
+        <v>0.16043011718502237</v>
+      </c>
+      <c r="AD16">
+        <f t="shared" si="1"/>
+        <v>5.2882759750553552</v>
+      </c>
+      <c r="AE16">
         <f t="shared" si="2"/>
-        <v>-1.789686930811336E-2</v>
-      </c>
-      <c r="Q16">
-        <f t="shared" si="3"/>
-        <v>0.34943168144860592</v>
+        <v>5.2882759750553543</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>0.5</v>
       </c>
@@ -1287,55 +2002,108 @@
         <v>750</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>3.872983346207417</v>
       </c>
       <c r="F17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>7.5</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>1.5915494309189533E-3</v>
       </c>
       <c r="H17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>0.5</v>
       </c>
       <c r="I17" s="4">
         <v>0</v>
       </c>
       <c r="J17">
-        <f t="shared" si="6"/>
-        <v>0.21608158181575771</v>
+        <f t="shared" si="17"/>
+        <v>0.18228867902313628</v>
       </c>
       <c r="K17">
         <v>0.108359999999999</v>
       </c>
       <c r="L17" s="5">
-        <f t="shared" si="0"/>
-        <v>-2.3414600205555289E-2</v>
+        <f t="shared" si="3"/>
+        <v>-1.9752801258946864E-2</v>
       </c>
       <c r="M17">
         <v>9.5224399999999904E-2</v>
       </c>
       <c r="N17">
-        <f t="shared" si="1"/>
-        <v>-2.0576238979456419E-2</v>
+        <f t="shared" si="4"/>
+        <v>-1.7358330086770721E-2</v>
       </c>
       <c r="O17" s="1">
         <v>0.106234</v>
       </c>
       <c r="P17">
+        <f t="shared" si="5"/>
+        <v>-3.2228146090381121E-3</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="6"/>
+        <v>0.22752705883037297</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="7"/>
+        <v>6.0088022044568223</v>
+      </c>
+      <c r="S17" s="1">
+        <f t="shared" si="8"/>
+        <v>8.2107246939597242E-2</v>
+      </c>
+      <c r="T17" s="1">
+        <f t="shared" si="18"/>
+        <v>0.16275000000000001</v>
+      </c>
+      <c r="U17" s="1">
+        <f t="shared" si="9"/>
+        <v>0.16275000000000001</v>
+      </c>
+      <c r="V17" s="7">
+        <f t="shared" si="10"/>
+        <v>0.18228867902313628</v>
+      </c>
+      <c r="W17" s="2">
+        <f>S17/$S$5</f>
+        <v>3.872983346207417</v>
+      </c>
+      <c r="X17" s="6">
+        <f t="shared" si="11"/>
+        <v>3.4536622650941294E-5</v>
+      </c>
+      <c r="Y17" s="2">
+        <f t="shared" si="12"/>
+        <v>0.50000000000000011</v>
+      </c>
+      <c r="Z17" s="2"/>
+      <c r="AA17">
+        <f t="shared" si="13"/>
+        <v>2356.1944901923448</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="14"/>
+        <v>7.4999999999999991</v>
+      </c>
+      <c r="AC17" s="4">
+        <f t="shared" si="0"/>
+        <v>0.18228867902313625</v>
+      </c>
+      <c r="AD17">
+        <f t="shared" si="1"/>
+        <v>6.0088022044568214</v>
+      </c>
+      <c r="AE17">
         <f t="shared" si="2"/>
-        <v>-5.7110038841555692E-3</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" si="3"/>
-        <v>0.40319040167146836</v>
+        <v>6.0088022044568223</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>0.5</v>
       </c>
@@ -1346,55 +2114,108 @@
         <v>850</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>4.1231056256176606</v>
       </c>
       <c r="F18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>8.5</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>1.5915494309189536E-3</v>
       </c>
       <c r="H18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>0.50000000000000011</v>
       </c>
       <c r="I18" s="4">
         <v>0</v>
       </c>
       <c r="J18">
-        <f t="shared" si="6"/>
-        <v>0.23152807605126424</v>
+        <f t="shared" si="17"/>
+        <v>0.20411340597814737</v>
       </c>
       <c r="K18">
         <v>4.4851299999999997E-2</v>
       </c>
       <c r="L18" s="5">
-        <f t="shared" si="0"/>
-        <v>-1.0384335197398066E-2</v>
+        <f t="shared" si="3"/>
+        <v>-9.1547516055476806E-3</v>
       </c>
       <c r="M18">
         <v>8.2739899999999894E-2</v>
       </c>
       <c r="N18">
-        <f t="shared" si="1"/>
-        <v>-1.9156609859673972E-2</v>
+        <f t="shared" si="4"/>
+        <v>-1.6888322799291294E-2</v>
       </c>
       <c r="O18" s="1">
         <v>0.111942</v>
       </c>
       <c r="P18">
-        <f t="shared" si="2"/>
-        <v>-6.0178586591876681E-3</v>
+        <f t="shared" si="5"/>
+        <v>-3.3959778692786149E-3</v>
       </c>
       <c r="Q18">
         <f>B18*C18*$T$3</f>
-        <v>0.45694912189433079</v>
+        <v>0.25786400000775606</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="7"/>
+        <v>6.728213130805651</v>
+      </c>
+      <c r="S18" s="1">
+        <f t="shared" si="8"/>
+        <v>8.740983926309441E-2</v>
+      </c>
+      <c r="T18" s="1">
+        <f t="shared" si="18"/>
+        <v>0.18445</v>
+      </c>
+      <c r="U18" s="1">
+        <f t="shared" si="9"/>
+        <v>0.18445</v>
+      </c>
+      <c r="V18" s="7">
+        <f t="shared" si="10"/>
+        <v>0.20411340597814737</v>
+      </c>
+      <c r="W18" s="2">
+        <f>S18/$S$5</f>
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="X18" s="6">
+        <f t="shared" si="11"/>
+        <v>3.4536622650941294E-5</v>
+      </c>
+      <c r="Y18" s="2">
+        <f t="shared" si="12"/>
+        <v>0.50000000000000011</v>
+      </c>
+      <c r="Z18" s="2"/>
+      <c r="AA18">
+        <f t="shared" si="13"/>
+        <v>2670.3537555513249</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" si="14"/>
+        <v>8.5000000000000018</v>
+      </c>
+      <c r="AC18" s="4">
+        <f t="shared" si="0"/>
+        <v>0.20411340597814737</v>
+      </c>
+      <c r="AD18">
+        <f t="shared" si="1"/>
+        <v>6.728213130805651</v>
+      </c>
+      <c r="AE18">
+        <f t="shared" si="2"/>
+        <v>6.728213130805651</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>0.5</v>
       </c>
@@ -1405,55 +2226,108 @@
         <v>950</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>4.358898943540674</v>
       </c>
       <c r="F19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>9.5</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>1.5915494309189533E-3</v>
       </c>
       <c r="H19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>0.5</v>
       </c>
       <c r="I19" s="4">
         <v>0</v>
       </c>
       <c r="J19">
-        <f t="shared" si="6"/>
-        <v>0.24633564500494037</v>
+        <f t="shared" si="17"/>
+        <v>0.22591410425203648</v>
       </c>
       <c r="K19">
         <v>9.9272299999999994E-2</v>
       </c>
       <c r="L19" s="5">
-        <f t="shared" si="0"/>
-        <v>-2.445430605162394E-2</v>
+        <f t="shared" si="3"/>
+        <v>-2.242701273153944E-2</v>
       </c>
       <c r="M19">
         <v>5.8999000000000003E-2</v>
       </c>
       <c r="N19">
-        <f t="shared" si="1"/>
-        <v>-1.4533556719646477E-2</v>
+        <f t="shared" si="4"/>
+        <v>-1.3328706236765901E-2</v>
       </c>
       <c r="O19" s="1">
         <v>9.8087099999999997E-2</v>
       </c>
       <c r="P19">
+        <f t="shared" si="5"/>
+        <v>-2.9756625829600899E-3</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="6"/>
+        <v>0.28820094118513911</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="7"/>
+        <v>7.4468319970393395</v>
+      </c>
+      <c r="S19" s="1">
+        <f t="shared" si="8"/>
+        <v>9.2408657603062286E-2</v>
+      </c>
+      <c r="T19" s="1">
+        <f t="shared" si="18"/>
+        <v>0.20615</v>
+      </c>
+      <c r="U19" s="1">
+        <f t="shared" si="9"/>
+        <v>0.20615</v>
+      </c>
+      <c r="V19" s="7">
+        <f t="shared" si="10"/>
+        <v>0.22591410425203645</v>
+      </c>
+      <c r="W19" s="2">
+        <f>S19/$S$5</f>
+        <v>4.358898943540674</v>
+      </c>
+      <c r="X19" s="6">
+        <f t="shared" si="11"/>
+        <v>3.4536622650941287E-5</v>
+      </c>
+      <c r="Y19" s="2">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="Z19" s="2"/>
+      <c r="AA19">
+        <f t="shared" si="13"/>
+        <v>2984.5130209103036</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" si="14"/>
+        <v>9.5</v>
+      </c>
+      <c r="AC19" s="4">
+        <f t="shared" si="0"/>
+        <v>0.22591410425203645</v>
+      </c>
+      <c r="AD19">
+        <f t="shared" si="1"/>
+        <v>7.4468319970393386</v>
+      </c>
+      <c r="AE19">
         <f t="shared" si="2"/>
-        <v>-5.2730369663719313E-3</v>
-      </c>
-      <c r="Q19">
-        <f t="shared" si="3"/>
-        <v>0.51070784211719322</v>
+        <v>7.4468319970393395</v>
       </c>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>0.5</v>
       </c>
@@ -1464,55 +2338,108 @@
         <v>1050</v>
       </c>
       <c r="E20" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>4.5825756949558398</v>
       </c>
       <c r="F20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>10.5</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>1.5915494309189533E-3</v>
       </c>
       <c r="H20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>0.5</v>
       </c>
       <c r="I20" s="4">
         <v>0</v>
       </c>
       <c r="J20">
-        <f t="shared" si="6"/>
-        <v>0.26061321915820002</v>
+        <f t="shared" si="17"/>
+        <v>0.24769711847334841</v>
       </c>
       <c r="K20">
         <v>4.4715600000000001E-2</v>
       </c>
       <c r="L20" s="5">
-        <f t="shared" si="0"/>
-        <v>-1.1653476462590408E-2</v>
+        <f t="shared" si="3"/>
+        <v>-1.1075925270806858E-2</v>
       </c>
       <c r="M20">
         <v>3.3607699999999997E-2</v>
       </c>
       <c r="N20">
-        <f t="shared" si="1"/>
-        <v>-8.7586108855030372E-3</v>
+        <f t="shared" si="4"/>
+        <v>-8.3245304485167499E-3</v>
       </c>
       <c r="O20" s="1">
         <v>6.6814899999999899E-2</v>
       </c>
       <c r="P20">
+        <f t="shared" si="5"/>
+        <v>-2.0269596910727286E-3</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="6"/>
+        <v>0.31853788236252217</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="7"/>
+        <v>8.1648679418613472</v>
+      </c>
+      <c r="S20" s="1">
+        <f t="shared" si="8"/>
+        <v>9.7150604733063806E-2</v>
+      </c>
+      <c r="T20" s="1">
+        <f t="shared" si="18"/>
+        <v>0.22785</v>
+      </c>
+      <c r="U20" s="1">
+        <f t="shared" si="9"/>
+        <v>0.22785</v>
+      </c>
+      <c r="V20" s="7">
+        <f t="shared" si="10"/>
+        <v>0.24769711847334841</v>
+      </c>
+      <c r="W20" s="2">
+        <f>S20/$S$5</f>
+        <v>4.5825756949558398</v>
+      </c>
+      <c r="X20" s="6">
+        <f t="shared" si="11"/>
+        <v>3.4536622650941287E-5</v>
+      </c>
+      <c r="Y20" s="2">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="Z20" s="2"/>
+      <c r="AA20">
+        <f t="shared" si="13"/>
+        <v>3298.6722862692827</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" si="14"/>
+        <v>10.5</v>
+      </c>
+      <c r="AC20" s="4">
+        <f t="shared" si="0"/>
+        <v>0.24769711847334841</v>
+      </c>
+      <c r="AD20">
+        <f t="shared" si="1"/>
+        <v>8.1648679418613472</v>
+      </c>
+      <c r="AE20">
         <f t="shared" si="2"/>
-        <v>-3.5918835158185265E-3</v>
-      </c>
-      <c r="Q20">
-        <f t="shared" si="3"/>
-        <v>0.56446656234005566</v>
+        <v>8.1648679418613472</v>
       </c>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>0.5</v>
       </c>
@@ -1523,55 +2450,108 @@
         <v>1150</v>
       </c>
       <c r="E21" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>4.7958315233127191</v>
       </c>
       <c r="F21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>11.5</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>1.5915494309189536E-3</v>
       </c>
       <c r="H21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>0.50000000000000011</v>
       </c>
       <c r="I21" s="4">
         <v>0</v>
       </c>
       <c r="J21">
-        <f t="shared" si="6"/>
-        <v>0.27444352788870785</v>
+        <f t="shared" si="17"/>
+        <v>0.26946673727939036</v>
       </c>
       <c r="K21">
         <v>5.5341300000000003E-2</v>
       </c>
       <c r="L21" s="5">
-        <f t="shared" si="0"/>
-        <v>-1.5188061609947349E-2</v>
+        <f t="shared" si="3"/>
+        <v>-1.4912639547799927E-2</v>
       </c>
       <c r="M21">
         <v>3.7790499999999998E-2</v>
       </c>
       <c r="N21">
-        <f t="shared" si="1"/>
-        <v>-1.0371358140678213E-2</v>
+        <f t="shared" si="4"/>
+        <v>-1.01832827351568E-2</v>
       </c>
       <c r="O21" s="1">
         <v>8.3875500000000006E-2</v>
       </c>
       <c r="P21">
+        <f t="shared" si="5"/>
+        <v>-2.5445261097235931E-3</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="6"/>
+        <v>0.34887482353990523</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="7"/>
+        <v>8.8824623321050069</v>
+      </c>
+      <c r="S21" s="1">
+        <f t="shared" si="8"/>
+        <v>0.10167162829422964</v>
+      </c>
+      <c r="T21" s="1">
+        <f t="shared" si="18"/>
+        <v>0.24954999999999999</v>
+      </c>
+      <c r="U21" s="1">
+        <f t="shared" si="9"/>
+        <v>0.24954999999999999</v>
+      </c>
+      <c r="V21" s="7">
+        <f t="shared" si="10"/>
+        <v>0.26946673727939036</v>
+      </c>
+      <c r="W21" s="2">
+        <f>S21/$S$5</f>
+        <v>4.7958315233127191</v>
+      </c>
+      <c r="X21" s="6">
+        <f t="shared" si="11"/>
+        <v>3.4536622650941287E-5</v>
+      </c>
+      <c r="Y21" s="2">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="Z21" s="2"/>
+      <c r="AA21">
+        <f t="shared" si="13"/>
+        <v>3612.8315516282632</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" si="14"/>
+        <v>11.500000000000004</v>
+      </c>
+      <c r="AC21" s="4">
+        <f t="shared" si="0"/>
+        <v>0.26946673727939047</v>
+      </c>
+      <c r="AD21">
+        <f t="shared" si="1"/>
+        <v>8.8824623321050105</v>
+      </c>
+      <c r="AE21">
         <f t="shared" si="2"/>
-        <v>-4.509039538052699E-3</v>
-      </c>
-      <c r="Q21">
-        <f t="shared" si="3"/>
-        <v>0.61822528256291809</v>
+        <v>8.8824623321050069</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>0.5</v>
       </c>
@@ -1582,55 +2562,108 @@
         <v>1250</v>
       </c>
       <c r="E22" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>5</v>
       </c>
       <c r="F22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>12.5</v>
       </c>
       <c r="G22" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>1.5915494309189533E-3</v>
       </c>
       <c r="H22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>0.5</v>
       </c>
       <c r="I22" s="4">
         <v>0</v>
       </c>
       <c r="J22">
-        <f t="shared" si="6"/>
-        <v>0.28789103841557834</v>
+        <f t="shared" si="17"/>
+        <v>0.29122596467348166</v>
       </c>
       <c r="K22">
         <v>6.01229E-2</v>
       </c>
       <c r="L22" s="5">
-        <f t="shared" si="0"/>
-        <v>-1.7308844113555974E-2</v>
+        <f t="shared" si="3"/>
+        <v>-1.7509349551467272E-2</v>
       </c>
       <c r="M22">
         <v>3.3136199999999998E-2</v>
       </c>
       <c r="N22">
-        <f t="shared" si="1"/>
-        <v>-9.5396150271462865E-3</v>
+        <f t="shared" si="4"/>
+        <v>-9.650121810613423E-3</v>
       </c>
       <c r="O22" s="1">
         <v>7.4602299999999996E-2</v>
       </c>
       <c r="P22">
+        <f t="shared" si="5"/>
+        <v>-2.2632055867974842E-3</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="6"/>
+        <v>0.37921176471728829</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="7"/>
+        <v>9.5997141890691928</v>
+      </c>
+      <c r="S22" s="1">
+        <f t="shared" si="8"/>
+        <v>0.106</v>
+      </c>
+      <c r="T22" s="1">
+        <f t="shared" si="18"/>
+        <v>0.27124999999999999</v>
+      </c>
+      <c r="U22" s="1">
+        <f t="shared" si="9"/>
+        <v>0.27124999999999999</v>
+      </c>
+      <c r="V22" s="7">
+        <f t="shared" si="10"/>
+        <v>0.29122596467348166</v>
+      </c>
+      <c r="W22" s="2">
+        <f>S22/$S$5</f>
+        <v>5</v>
+      </c>
+      <c r="X22" s="6">
+        <f t="shared" si="11"/>
+        <v>3.4536622650941287E-5</v>
+      </c>
+      <c r="Y22" s="2">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="Z22" s="2"/>
+      <c r="AA22">
+        <f t="shared" si="13"/>
+        <v>3926.9908169872415</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" si="14"/>
+        <v>12.5</v>
+      </c>
+      <c r="AC22" s="4">
+        <f t="shared" si="0"/>
+        <v>0.29122596467348166</v>
+      </c>
+      <c r="AD22">
+        <f t="shared" si="1"/>
+        <v>9.5997141890691928</v>
+      </c>
+      <c r="AE22">
         <f t="shared" si="2"/>
-        <v>-4.0105241736820511E-3</v>
-      </c>
-      <c r="Q22">
-        <f t="shared" si="3"/>
-        <v>0.67198400278578063</v>
+        <v>9.5997141890691928</v>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>0.5</v>
       </c>
@@ -1641,55 +2674,108 @@
         <v>1350</v>
       </c>
       <c r="E23" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>5.196152422706632</v>
       </c>
       <c r="F23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>13.5</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>1.5915494309189533E-3</v>
       </c>
       <c r="H23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>0.5</v>
       </c>
       <c r="I23" s="4">
         <v>0</v>
       </c>
       <c r="J23">
-        <f t="shared" si="6"/>
-        <v>0.30100705971787439</v>
+        <f t="shared" si="17"/>
+        <v>0.31297696800243946</v>
       </c>
       <c r="K23">
         <v>3.3899199999999997E-2</v>
       </c>
       <c r="L23" s="5">
-        <f t="shared" si="0"/>
-        <v>-1.0203898518788166E-2</v>
+        <f t="shared" si="3"/>
+        <v>-1.0609668833708294E-2</v>
       </c>
       <c r="M23">
         <v>3.2453999999999997E-2</v>
       </c>
       <c r="N23">
-        <f t="shared" si="1"/>
-        <v>-9.768883116083895E-3</v>
+        <f t="shared" si="4"/>
+        <v>-1.015735451955117E-2</v>
       </c>
       <c r="O23" s="1">
         <v>6.81866E-2</v>
       </c>
       <c r="P23">
+        <f t="shared" si="5"/>
+        <v>-2.0685728732857478E-3</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="6"/>
+        <v>0.40954870589467135</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="7"/>
+        <v>10.316694955250515</v>
+      </c>
+      <c r="S23" s="1">
+        <f t="shared" si="8"/>
+        <v>0.11015843136138059</v>
+      </c>
+      <c r="T23" s="1">
+        <f t="shared" si="18"/>
+        <v>0.29294999999999999</v>
+      </c>
+      <c r="U23" s="1">
+        <f t="shared" si="9"/>
+        <v>0.29294999999999999</v>
+      </c>
+      <c r="V23" s="7">
+        <f t="shared" si="10"/>
+        <v>0.31297696800243946</v>
+      </c>
+      <c r="W23" s="2">
+        <f>S23/$S$5</f>
+        <v>5.196152422706632</v>
+      </c>
+      <c r="X23" s="6">
+        <f t="shared" si="11"/>
+        <v>3.4536622650941287E-5</v>
+      </c>
+      <c r="Y23" s="2">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="Z23" s="2"/>
+      <c r="AA23">
+        <f t="shared" si="13"/>
+        <v>4241.1500823462211</v>
+      </c>
+      <c r="AB23">
+        <f t="shared" si="14"/>
+        <v>13.5</v>
+      </c>
+      <c r="AC23" s="4">
+        <f t="shared" si="0"/>
+        <v>0.31297696800243946</v>
+      </c>
+      <c r="AD23">
+        <f t="shared" si="1"/>
+        <v>10.316694955250515</v>
+      </c>
+      <c r="AE23">
         <f t="shared" si="2"/>
-        <v>-3.6656243523482323E-3</v>
-      </c>
-      <c r="Q23">
-        <f t="shared" si="3"/>
-        <v>0.72574272300864306</v>
+        <v>10.316694955250515</v>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>0.5</v>
       </c>
@@ -1700,55 +2786,108 @@
         <v>1450</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>5.3851648071345037</v>
       </c>
       <c r="F24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>14.5</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>1.5915494309189536E-3</v>
       </c>
       <c r="H24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>0.50000000000000011</v>
       </c>
       <c r="I24" s="4">
         <v>0</v>
       </c>
       <c r="J24">
-        <f t="shared" si="6"/>
-        <v>0.31383315631080155</v>
+        <f t="shared" si="17"/>
+        <v>0.33472135052906321</v>
       </c>
       <c r="K24">
         <v>5.5140499999999898E-2</v>
       </c>
       <c r="L24" s="5">
-        <f t="shared" si="0"/>
-        <v>-1.7304917155555721E-2</v>
+        <f t="shared" si="3"/>
+        <v>-1.8456702628847774E-2</v>
       </c>
       <c r="M24">
         <v>4.70058E-2</v>
       </c>
       <c r="N24">
-        <f t="shared" si="1"/>
-        <v>-1.4751978578914277E-2</v>
+        <f t="shared" si="4"/>
+        <v>-1.5733844858699039E-2</v>
       </c>
       <c r="O24" s="1">
         <v>8.8220599999999996E-2</v>
       </c>
       <c r="P24">
+        <f t="shared" si="5"/>
+        <v>-2.6763431528334402E-3</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="6"/>
+        <v>0.43988564707205441</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="7"/>
+        <v>11.033457479180736</v>
+      </c>
+      <c r="S24" s="1">
+        <f t="shared" si="8"/>
+        <v>0.11416549391125148</v>
+      </c>
+      <c r="T24" s="1">
+        <f t="shared" si="18"/>
+        <v>0.31464999999999999</v>
+      </c>
+      <c r="U24" s="1">
+        <f t="shared" si="9"/>
+        <v>0.31464999999999999</v>
+      </c>
+      <c r="V24" s="7">
+        <f t="shared" si="10"/>
+        <v>0.33472135052906321</v>
+      </c>
+      <c r="W24" s="2">
+        <f>S24/$S$5</f>
+        <v>5.3851648071345037</v>
+      </c>
+      <c r="X24" s="6">
+        <f t="shared" si="11"/>
+        <v>3.4536622650941287E-5</v>
+      </c>
+      <c r="Y24" s="2">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="Z24" s="2"/>
+      <c r="AA24">
+        <f t="shared" si="13"/>
+        <v>4555.3093477052016</v>
+      </c>
+      <c r="AB24">
+        <f t="shared" si="14"/>
+        <v>14.500000000000004</v>
+      </c>
+      <c r="AC24" s="4">
+        <f t="shared" si="0"/>
+        <v>0.33472135052906332</v>
+      </c>
+      <c r="AD24">
+        <f t="shared" si="1"/>
+        <v>11.03345747918074</v>
+      </c>
+      <c r="AE24">
         <f t="shared" si="2"/>
-        <v>-4.7426265532930587E-3</v>
-      </c>
-      <c r="Q24">
-        <f t="shared" si="3"/>
-        <v>0.7795014432315055</v>
+        <v>11.033457479180736</v>
       </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>0.5</v>
       </c>
@@ -1759,55 +2898,108 @@
         <v>1550</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>5.5677643628300215</v>
       </c>
       <c r="F25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>15.5</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>1.5915494309189533E-3</v>
       </c>
       <c r="H25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>0.5</v>
       </c>
       <c r="I25" s="4">
         <v>0</v>
       </c>
       <c r="J25">
-        <f t="shared" si="6"/>
-        <v>0.32640350794683559</v>
+        <f t="shared" si="17"/>
+        <v>0.35646032387911003</v>
       </c>
       <c r="K25">
         <v>6.4735799999999996E-2</v>
       </c>
       <c r="L25" s="5">
-        <f t="shared" si="0"/>
-        <v>-2.1129992209744757E-2</v>
+        <f t="shared" si="3"/>
+        <v>-2.307574423457329E-2</v>
       </c>
       <c r="M25">
         <v>5.0260100000000002E-2</v>
       </c>
       <c r="N25">
-        <f t="shared" si="1"/>
-        <v>-1.6405072949758751E-2</v>
+        <f t="shared" si="4"/>
+        <v>-1.7915731524196458E-2</v>
       </c>
       <c r="O25" s="1">
         <v>8.3450300000000005E-2</v>
       </c>
       <c r="P25">
+        <f t="shared" si="5"/>
+        <v>-2.5316268423349699E-3</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="6"/>
+        <v>0.47022258824943747</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="7"/>
+        <v>11.750041699815801</v>
+      </c>
+      <c r="S25" s="1">
+        <f t="shared" si="8"/>
+        <v>0.11803660449199646</v>
+      </c>
+      <c r="T25" s="1">
+        <f t="shared" si="18"/>
+        <v>0.33634999999999998</v>
+      </c>
+      <c r="U25" s="1">
+        <f t="shared" si="9"/>
+        <v>0.33634999999999998</v>
+      </c>
+      <c r="V25" s="7">
+        <f t="shared" si="10"/>
+        <v>0.35646032387910997</v>
+      </c>
+      <c r="W25" s="2">
+        <f>S25/$S$5</f>
+        <v>5.5677643628300215</v>
+      </c>
+      <c r="X25" s="6">
+        <f t="shared" si="11"/>
+        <v>3.4536622650941287E-5</v>
+      </c>
+      <c r="Y25" s="2">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="Z25" s="2"/>
+      <c r="AA25">
+        <f t="shared" si="13"/>
+        <v>4869.4686130641794</v>
+      </c>
+      <c r="AB25">
+        <f t="shared" si="14"/>
+        <v>15.5</v>
+      </c>
+      <c r="AC25" s="4">
+        <f t="shared" si="0"/>
+        <v>0.35646032387910997</v>
+      </c>
+      <c r="AD25">
+        <f t="shared" si="1"/>
+        <v>11.750041699815799</v>
+      </c>
+      <c r="AE25">
         <f t="shared" si="2"/>
-        <v>-4.4861813302139383E-3</v>
-      </c>
-      <c r="Q25">
-        <f t="shared" si="3"/>
-        <v>0.83326016345436793</v>
+        <v>11.750041699815801</v>
       </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>0.5</v>
       </c>
@@ -1818,55 +3010,108 @@
         <v>1650</v>
       </c>
       <c r="E26" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>5.7445626465380286</v>
       </c>
       <c r="F26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>16.5</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>1.5915494309189533E-3</v>
       </c>
       <c r="H26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>0.5</v>
       </c>
       <c r="I26" s="4">
         <v>0</v>
       </c>
       <c r="J26">
-        <f t="shared" si="6"/>
-        <v>0.33874658669867064</v>
+        <f t="shared" si="17"/>
+        <v>0.37819482082651529</v>
       </c>
       <c r="K26">
         <v>3.6693299999999998E-2</v>
       </c>
       <c r="L26" s="5">
-        <f t="shared" si="0"/>
-        <v>-1.2429730129710331E-2</v>
+        <f t="shared" si="3"/>
+        <v>-1.3877216019033573E-2</v>
       </c>
       <c r="M26">
         <v>5.0893800000000003E-2</v>
       </c>
       <c r="N26">
-        <f t="shared" si="1"/>
-        <v>-1.7240101034124804E-2</v>
+        <f t="shared" si="4"/>
+        <v>-1.9247771572180505E-2</v>
       </c>
       <c r="O26" s="1">
         <v>7.50445E-2</v>
       </c>
       <c r="P26">
+        <f t="shared" si="5"/>
+        <v>-2.2766205821861231E-3</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="6"/>
+        <v>0.50055952942682058</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="7"/>
+        <v>12.466478364287724</v>
+      </c>
+      <c r="S26" s="1">
+        <f t="shared" si="8"/>
+        <v>0.1217847281066062</v>
+      </c>
+      <c r="T26" s="1">
+        <f t="shared" si="18"/>
+        <v>0.35805000000000003</v>
+      </c>
+      <c r="U26" s="1">
+        <f t="shared" si="9"/>
+        <v>0.35805000000000003</v>
+      </c>
+      <c r="V26" s="7">
+        <f t="shared" si="10"/>
+        <v>0.37819482082651529</v>
+      </c>
+      <c r="W26" s="2">
+        <f>S26/$S$5</f>
+        <v>5.7445626465380286</v>
+      </c>
+      <c r="X26" s="6">
+        <f t="shared" si="11"/>
+        <v>3.4536622650941287E-5</v>
+      </c>
+      <c r="Y26" s="2">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="Z26" s="2"/>
+      <c r="AA26">
+        <f t="shared" si="13"/>
+        <v>5183.627878423159</v>
+      </c>
+      <c r="AB26">
+        <f t="shared" si="14"/>
+        <v>16.5</v>
+      </c>
+      <c r="AC26" s="4">
+        <f t="shared" si="0"/>
+        <v>0.37819482082651529</v>
+      </c>
+      <c r="AD26">
+        <f t="shared" si="1"/>
+        <v>12.466478364287724</v>
+      </c>
+      <c r="AE26">
         <f t="shared" si="2"/>
-        <v>-4.034296279764601E-3</v>
-      </c>
-      <c r="Q26">
-        <f t="shared" si="3"/>
-        <v>0.88701888367723036</v>
+        <v>12.466478364287724</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>0.5</v>
       </c>
@@ -1877,55 +3122,108 @@
         <v>1750</v>
       </c>
       <c r="E27" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>5.9160797830996161</v>
       </c>
       <c r="F27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>17.5</v>
       </c>
       <c r="G27" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>1.5915494309189536E-3</v>
       </c>
       <c r="H27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>0.50000000000000011</v>
       </c>
       <c r="I27" s="4">
         <v>0</v>
       </c>
       <c r="J27">
-        <f t="shared" si="6"/>
-        <v>0.35088637762101854</v>
+        <f t="shared" si="17"/>
+        <v>0.39992557120044225</v>
       </c>
       <c r="K27">
         <v>6.65467E-2</v>
       </c>
       <c r="L27" s="5">
-        <f t="shared" si="0"/>
-        <v>-2.3350330505632635E-2</v>
+        <f t="shared" si="3"/>
+        <v>-2.6613727009004471E-2</v>
       </c>
       <c r="M27">
         <v>7.0622000000000004E-2</v>
       </c>
       <c r="N27">
-        <f t="shared" si="1"/>
-        <v>-2.4780297760351573E-2</v>
+        <f t="shared" si="4"/>
+        <v>-2.8243543689317634E-2</v>
       </c>
       <c r="O27" s="1">
         <v>9.3119599999999997E-2</v>
       </c>
       <c r="P27">
+        <f t="shared" si="5"/>
+        <v>-2.8249638276614396E-3</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="6"/>
+        <v>0.53089647060420364</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="7"/>
+        <v>13.182791530037202</v>
+      </c>
+      <c r="S27" s="1">
+        <f t="shared" si="8"/>
+        <v>0.12542089140171186</v>
+      </c>
+      <c r="T27" s="1">
+        <f t="shared" si="18"/>
+        <v>0.37975000000000003</v>
+      </c>
+      <c r="U27" s="1">
+        <f t="shared" si="9"/>
+        <v>0.37975000000000003</v>
+      </c>
+      <c r="V27" s="7">
+        <f t="shared" si="10"/>
+        <v>0.39992557120044225</v>
+      </c>
+      <c r="W27" s="2">
+        <f>S27/$S$5</f>
+        <v>5.9160797830996161</v>
+      </c>
+      <c r="X27" s="6">
+        <f t="shared" si="11"/>
+        <v>3.4536622650941294E-5</v>
+      </c>
+      <c r="Y27" s="2">
+        <f t="shared" si="12"/>
+        <v>0.50000000000000011</v>
+      </c>
+      <c r="Z27" s="2"/>
+      <c r="AA27">
+        <f t="shared" si="13"/>
+        <v>5497.7871437821395</v>
+      </c>
+      <c r="AB27">
+        <f t="shared" si="14"/>
+        <v>17.500000000000004</v>
+      </c>
+      <c r="AC27" s="4">
+        <f t="shared" si="0"/>
+        <v>0.39992557120044236</v>
+      </c>
+      <c r="AD27">
+        <f t="shared" si="1"/>
+        <v>13.182791530037205</v>
+      </c>
+      <c r="AE27">
         <f t="shared" si="2"/>
-        <v>-5.0059905236648616E-3</v>
-      </c>
-      <c r="Q27">
-        <f t="shared" si="3"/>
-        <v>0.9407776039000928</v>
+        <v>13.182791530037202</v>
       </c>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>0.5</v>
       </c>
@@ -1936,55 +3234,108 @@
         <v>1850</v>
       </c>
       <c r="E28" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>6.0827625302982193</v>
       </c>
       <c r="F28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>18.5</v>
       </c>
       <c r="G28" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>1.5915494309189533E-3</v>
       </c>
       <c r="H28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>0.5</v>
       </c>
       <c r="I28" s="4">
         <v>0</v>
       </c>
       <c r="J28">
-        <f t="shared" si="6"/>
-        <v>0.36284328573090613</v>
+        <f t="shared" si="17"/>
+        <v>0.42165315426307437</v>
       </c>
       <c r="K28">
         <v>3.3714800000000003E-2</v>
       </c>
       <c r="L28" s="5">
-        <f t="shared" si="0"/>
-        <v>-1.2233188809760355E-2</v>
+        <f t="shared" si="3"/>
+        <v>-1.42159517653487E-2</v>
       </c>
       <c r="M28">
         <v>6.9085399999999894E-2</v>
       </c>
       <c r="N28">
-        <f t="shared" si="1"/>
-        <v>-2.5067173532033905E-2</v>
+        <f t="shared" si="4"/>
+        <v>-2.9130076823526155E-2</v>
       </c>
       <c r="O28" s="1">
         <v>8.1768599999999997E-2</v>
       </c>
       <c r="P28">
+        <f t="shared" si="5"/>
+        <v>-2.4806092083569644E-3</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="6"/>
+        <v>0.5612334117815867</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="7"/>
+        <v>13.899000291348662</v>
+      </c>
+      <c r="S28" s="1">
+        <f t="shared" si="8"/>
+        <v>0.12895456564232224</v>
+      </c>
+      <c r="T28" s="1">
+        <f t="shared" si="18"/>
+        <v>0.40145000000000003</v>
+      </c>
+      <c r="U28" s="1">
+        <f t="shared" si="9"/>
+        <v>0.40145000000000003</v>
+      </c>
+      <c r="V28" s="7">
+        <f t="shared" si="10"/>
+        <v>0.42165315426307437</v>
+      </c>
+      <c r="W28" s="2">
+        <f>S28/$S$5</f>
+        <v>6.0827625302982193</v>
+      </c>
+      <c r="X28" s="6">
+        <f t="shared" si="11"/>
+        <v>3.4536622650941294E-5</v>
+      </c>
+      <c r="Y28" s="2">
+        <f t="shared" si="12"/>
+        <v>0.50000000000000011</v>
+      </c>
+      <c r="Z28" s="2"/>
+      <c r="AA28">
+        <f t="shared" si="13"/>
+        <v>5811.9464091411173</v>
+      </c>
+      <c r="AB28">
+        <f t="shared" si="14"/>
+        <v>18.5</v>
+      </c>
+      <c r="AC28" s="4">
+        <f t="shared" si="0"/>
+        <v>0.42165315426307437</v>
+      </c>
+      <c r="AD28">
+        <f t="shared" si="1"/>
+        <v>13.899000291348662</v>
+      </c>
+      <c r="AE28">
         <f t="shared" si="2"/>
-        <v>-4.3957752904151505E-3</v>
-      </c>
-      <c r="Q28">
-        <f t="shared" si="3"/>
-        <v>0.99453632412295523</v>
+        <v>13.899000291348662</v>
       </c>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>0.5</v>
       </c>
@@ -1995,55 +3346,108 @@
         <v>1950</v>
       </c>
       <c r="E29" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>6.2449979983983983</v>
       </c>
       <c r="F29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>19.5</v>
       </c>
       <c r="G29" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>1.5915494309189533E-3</v>
       </c>
       <c r="H29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>0.5</v>
       </c>
       <c r="I29" s="4">
         <v>0</v>
       </c>
       <c r="J29">
-        <f t="shared" si="6"/>
-        <v>0.37463482219355954</v>
+        <f t="shared" si="17"/>
+        <v>0.44337803565354922</v>
       </c>
       <c r="K29">
         <v>1.82910999999999E-2</v>
       </c>
       <c r="L29" s="5">
-        <f t="shared" si="0"/>
-        <v>-6.8524829962245794E-3</v>
+        <f t="shared" si="3"/>
+        <v>-8.10987198794259E-3</v>
       </c>
       <c r="M29">
         <v>6.6054999999999905E-2</v>
       </c>
       <c r="N29">
-        <f t="shared" si="1"/>
-        <v>-2.4746503179995539E-2</v>
+        <f t="shared" si="4"/>
+        <v>-2.9287336145095152E-2</v>
       </c>
       <c r="O29" s="1">
         <v>7.0286500000000002E-2</v>
       </c>
       <c r="P29">
+        <f t="shared" si="5"/>
+        <v>-2.1322774160641347E-3</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="6"/>
+        <v>0.59157035295896976</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="7"/>
+        <v>14.615119997137301</v>
+      </c>
+      <c r="S29" s="1">
+        <f t="shared" si="8"/>
+        <v>0.13239395756604605</v>
+      </c>
+      <c r="T29" s="1">
+        <f t="shared" si="18"/>
+        <v>0.42314999999999997</v>
+      </c>
+      <c r="U29" s="1">
+        <f t="shared" si="9"/>
+        <v>0.42315000000000003</v>
+      </c>
+      <c r="V29" s="7">
+        <f t="shared" si="10"/>
+        <v>0.44337803565354922</v>
+      </c>
+      <c r="W29" s="2">
+        <f>S29/$S$5</f>
+        <v>6.2449979983983983</v>
+      </c>
+      <c r="X29" s="6">
+        <f t="shared" si="11"/>
+        <v>3.4536622650941287E-5</v>
+      </c>
+      <c r="Y29" s="2">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="Z29" s="2"/>
+      <c r="AA29">
+        <f t="shared" si="13"/>
+        <v>6126.1056745000969</v>
+      </c>
+      <c r="AB29">
+        <f t="shared" si="14"/>
+        <v>19.5</v>
+      </c>
+      <c r="AC29" s="4">
+        <f t="shared" si="0"/>
+        <v>0.44337803565354927</v>
+      </c>
+      <c r="AD29">
+        <f t="shared" si="1"/>
+        <v>14.615119997137302</v>
+      </c>
+      <c r="AE29">
         <f t="shared" si="2"/>
-        <v>-3.7785122889442213E-3</v>
-      </c>
-      <c r="Q29">
-        <f t="shared" si="3"/>
-        <v>1.0482950443458177</v>
+        <v>14.615119997137301</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>0.5</v>
       </c>
@@ -2054,55 +3458,108 @@
         <v>2050</v>
       </c>
       <c r="E30" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>6.4031242374328485</v>
       </c>
       <c r="F30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>20.5</v>
       </c>
       <c r="G30" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>1.5915494309189536E-3</v>
       </c>
       <c r="H30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>0.50000000000000011</v>
       </c>
       <c r="I30" s="4">
         <v>0</v>
       </c>
       <c r="J30">
-        <f t="shared" si="6"/>
-        <v>0.38627613180210857</v>
+        <f t="shared" si="17"/>
+        <v>0.46510059395790931</v>
       </c>
       <c r="K30">
         <v>3.6537899999999998E-2</v>
       </c>
       <c r="L30" s="5">
-        <f t="shared" si="0"/>
-        <v>-1.4113718676172261E-2</v>
+        <f t="shared" si="3"/>
+        <v>-1.6993798991974694E-2</v>
       </c>
       <c r="M30">
         <v>7.2619799999999998E-2</v>
       </c>
       <c r="N30">
-        <f t="shared" si="1"/>
-        <v>-2.8051295436242765E-2</v>
+        <f t="shared" si="4"/>
+        <v>-3.3775512113104582E-2</v>
       </c>
       <c r="O30" s="1">
         <v>6.96518E-2</v>
       </c>
       <c r="P30">
+        <f t="shared" si="5"/>
+        <v>-2.1130225594988496E-3</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="6"/>
+        <v>0.62190729413635282</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="7"/>
+        <v>15.331163126777373</v>
+      </c>
+      <c r="S30" s="1">
+        <f t="shared" si="8"/>
+        <v>0.1357462338335764</v>
+      </c>
+      <c r="T30" s="1">
+        <f t="shared" si="18"/>
+        <v>0.44485000000000002</v>
+      </c>
+      <c r="U30" s="1">
+        <f t="shared" si="9"/>
+        <v>0.44485000000000002</v>
+      </c>
+      <c r="V30" s="7">
+        <f t="shared" si="10"/>
+        <v>0.46510059395790931</v>
+      </c>
+      <c r="W30" s="2">
+        <f>S30/$S$5</f>
+        <v>6.4031242374328485</v>
+      </c>
+      <c r="X30" s="6">
+        <f t="shared" si="11"/>
+        <v>3.4536622650941294E-5</v>
+      </c>
+      <c r="Y30" s="2">
+        <f t="shared" si="12"/>
+        <v>0.50000000000000011</v>
+      </c>
+      <c r="Z30" s="2"/>
+      <c r="AA30">
+        <f t="shared" si="13"/>
+        <v>6440.2649398590775</v>
+      </c>
+      <c r="AB30">
+        <f t="shared" si="14"/>
+        <v>20.500000000000004</v>
+      </c>
+      <c r="AC30" s="4">
+        <f t="shared" si="0"/>
+        <v>0.46510059395790937</v>
+      </c>
+      <c r="AD30">
+        <f t="shared" si="1"/>
+        <v>15.331163126777374</v>
+      </c>
+      <c r="AE30">
         <f t="shared" si="2"/>
-        <v>-3.7443916292187705E-3</v>
-      </c>
-      <c r="Q30">
-        <f t="shared" si="3"/>
-        <v>1.1020537645686801</v>
+        <v>15.331163126777373</v>
       </c>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>0.5</v>
       </c>
@@ -2113,55 +3570,108 @@
         <v>2150</v>
       </c>
       <c r="E31" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>6.5574385243020004</v>
       </c>
       <c r="F31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>21.5</v>
       </c>
       <c r="G31" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>1.5915494309189533E-3</v>
       </c>
       <c r="H31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>0.5</v>
       </c>
       <c r="I31" s="4">
         <v>0</v>
       </c>
       <c r="J31">
-        <f t="shared" si="6"/>
-        <v>0.39778040424334626</v>
+        <f t="shared" si="17"/>
+        <v>0.48682114015313677</v>
       </c>
       <c r="K31">
         <v>3.0731499999999998E-2</v>
       </c>
       <c r="L31" s="5">
-        <f t="shared" si="0"/>
-        <v>-1.2224388493004395E-2</v>
+        <f t="shared" si="3"/>
+        <v>-1.4960743868616122E-2</v>
       </c>
       <c r="M31">
         <v>7.3526899999999895E-2</v>
       </c>
       <c r="N31">
-        <f t="shared" si="1"/>
-        <v>-2.9247560004760056E-2</v>
+        <f t="shared" si="4"/>
+        <v>-3.5794449289925617E-2</v>
       </c>
       <c r="O31" s="1">
         <v>6.3677199999999906E-2</v>
       </c>
       <c r="P31">
+        <f t="shared" si="5"/>
+        <v>-1.9317714707404539E-3</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="6"/>
+        <v>0.65224423531373588</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="7"/>
+        <v>16.047139931038068</v>
+      </c>
+      <c r="S31" s="1">
+        <f t="shared" si="8"/>
+        <v>0.13901769671520242</v>
+      </c>
+      <c r="T31" s="1">
+        <f t="shared" si="18"/>
+        <v>0.46655000000000002</v>
+      </c>
+      <c r="U31" s="1">
+        <f t="shared" si="9"/>
+        <v>0.46655000000000002</v>
+      </c>
+      <c r="V31" s="7">
+        <f t="shared" si="10"/>
+        <v>0.48682114015313677</v>
+      </c>
+      <c r="W31" s="2">
+        <f>S31/$S$5</f>
+        <v>6.5574385243020012</v>
+      </c>
+      <c r="X31" s="6">
+        <f t="shared" si="11"/>
+        <v>3.4536622650941294E-5</v>
+      </c>
+      <c r="Y31" s="2">
+        <f t="shared" si="12"/>
+        <v>0.50000000000000011</v>
+      </c>
+      <c r="Z31" s="2"/>
+      <c r="AA31">
+        <f t="shared" si="13"/>
+        <v>6754.4242052180552</v>
+      </c>
+      <c r="AB31">
+        <f t="shared" si="14"/>
+        <v>21.5</v>
+      </c>
+      <c r="AC31" s="4">
+        <f t="shared" si="0"/>
+        <v>0.48682114015313677</v>
+      </c>
+      <c r="AD31">
+        <f t="shared" si="1"/>
+        <v>16.047139931038068</v>
+      </c>
+      <c r="AE31">
         <f t="shared" si="2"/>
-        <v>-3.4232047793752514E-3</v>
-      </c>
-      <c r="Q31">
-        <f t="shared" si="3"/>
-        <v>1.1558124847915425</v>
+        <v>16.047139931038068</v>
       </c>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>0.5</v>
       </c>
@@ -2172,55 +3682,108 @@
         <v>2250</v>
       </c>
       <c r="E32" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>6.7082039324993694</v>
       </c>
       <c r="F32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>22.5</v>
       </c>
       <c r="G32" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>1.5915494309189533E-3</v>
       </c>
       <c r="H32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>0.5</v>
       </c>
       <c r="I32" s="4">
         <v>0</v>
       </c>
       <c r="J32">
-        <f t="shared" si="6"/>
-        <v>0.40915919884563268</v>
+        <f t="shared" si="17"/>
+        <v>0.50853993206040371</v>
       </c>
       <c r="K32">
         <v>1.8235600000000001E-2</v>
       </c>
       <c r="L32" s="5">
-        <f t="shared" si="0"/>
-        <v>-7.4612634864694195E-3</v>
+        <f t="shared" si="3"/>
+        <v>-9.2735307850806987E-3</v>
       </c>
       <c r="M32">
         <v>6.7724099999999995E-2</v>
       </c>
       <c r="N32">
-        <f t="shared" si="1"/>
-        <v>-2.770993849854151E-2</v>
+        <f t="shared" si="4"/>
+        <v>-3.4440409212851984E-2</v>
       </c>
       <c r="O32" s="1">
         <v>5.3056199999999998E-2</v>
       </c>
       <c r="P32">
+        <f t="shared" si="5"/>
+        <v>-1.6095628184954712E-3</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="6"/>
+        <v>0.68258117649111893</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="7"/>
+        <v>16.763058908507649</v>
+      </c>
+      <c r="S32" s="1">
+        <f t="shared" si="8"/>
+        <v>0.14221392336898664</v>
+      </c>
+      <c r="T32" s="1">
+        <f t="shared" si="18"/>
+        <v>0.48825000000000002</v>
+      </c>
+      <c r="U32" s="1">
+        <f t="shared" si="9"/>
+        <v>0.48825000000000002</v>
+      </c>
+      <c r="V32" s="7">
+        <f t="shared" si="10"/>
+        <v>0.50853993206040371</v>
+      </c>
+      <c r="W32" s="2">
+        <f>S32/$S$5</f>
+        <v>6.7082039324993694</v>
+      </c>
+      <c r="X32" s="6">
+        <f t="shared" si="11"/>
+        <v>3.4536622650941287E-5</v>
+      </c>
+      <c r="Y32" s="2">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="Z32" s="2"/>
+      <c r="AA32">
+        <f t="shared" si="13"/>
+        <v>7068.5834705770349</v>
+      </c>
+      <c r="AB32">
+        <f t="shared" si="14"/>
+        <v>22.5</v>
+      </c>
+      <c r="AC32" s="4">
+        <f t="shared" si="0"/>
+        <v>0.50853993206040371</v>
+      </c>
+      <c r="AD32">
+        <f t="shared" si="1"/>
+        <v>16.763058908507649</v>
+      </c>
+      <c r="AE32">
         <f t="shared" si="2"/>
-        <v>-2.8522334118882345E-3</v>
-      </c>
-      <c r="Q32">
-        <f t="shared" si="3"/>
-        <v>1.209571205014405</v>
+        <v>16.763058908507649</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>0.5</v>
       </c>
@@ -2231,55 +3794,108 @@
         <v>2350</v>
       </c>
       <c r="E33" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>6.8556546004010439</v>
       </c>
       <c r="F33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>23.5</v>
       </c>
       <c r="G33" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>1.5915494309189536E-3</v>
       </c>
       <c r="H33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>0.50000000000000011</v>
       </c>
       <c r="I33" s="4">
         <v>0</v>
       </c>
       <c r="J33">
-        <f t="shared" si="6"/>
-        <v>0.4204227039540086</v>
+        <f t="shared" si="17"/>
+        <v>0.53025718524127519</v>
       </c>
       <c r="K33">
         <v>2.87582999999999E-2</v>
       </c>
       <c r="L33" s="5">
-        <f t="shared" si="0"/>
-        <v>-1.2090642247120524E-2</v>
+        <f t="shared" si="3"/>
+        <v>-1.5249295210324112E-2</v>
       </c>
       <c r="M33">
         <v>9.0136399999999894E-2</v>
       </c>
       <c r="N33">
-        <f t="shared" si="1"/>
-        <v>-3.789538901268006E-2</v>
+        <f t="shared" si="4"/>
+        <v>-4.7795473751781621E-2</v>
       </c>
       <c r="O33" s="1">
         <v>6.4156400000000002E-2</v>
       </c>
       <c r="P33">
+        <f t="shared" si="5"/>
+        <v>-1.9463089329526588E-3</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="6"/>
+        <v>0.71291811766850199</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="7"/>
+        <v>17.478927164766201</v>
+      </c>
+      <c r="S33" s="1">
+        <f t="shared" si="8"/>
+        <v>0.14533987752850214</v>
+      </c>
+      <c r="T33" s="1">
+        <f t="shared" si="18"/>
+        <v>0.50995000000000001</v>
+      </c>
+      <c r="U33" s="1">
+        <f t="shared" si="9"/>
+        <v>0.50995000000000001</v>
+      </c>
+      <c r="V33" s="7">
+        <f t="shared" si="10"/>
+        <v>0.53025718524127519</v>
+      </c>
+      <c r="W33" s="2">
+        <f>S33/$S$5</f>
+        <v>6.8556546004010439</v>
+      </c>
+      <c r="X33" s="6">
+        <f t="shared" si="11"/>
+        <v>3.4536622650941294E-5</v>
+      </c>
+      <c r="Y33" s="2">
+        <f t="shared" si="12"/>
+        <v>0.50000000000000011</v>
+      </c>
+      <c r="Z33" s="2"/>
+      <c r="AA33">
+        <f t="shared" si="13"/>
+        <v>7382.7427359360163</v>
+      </c>
+      <c r="AB33">
+        <f t="shared" si="14"/>
+        <v>23.500000000000007</v>
+      </c>
+      <c r="AC33" s="4">
+        <f t="shared" si="0"/>
+        <v>0.5302571852412753</v>
+      </c>
+      <c r="AD33">
+        <f t="shared" si="1"/>
+        <v>17.478927164766205</v>
+      </c>
+      <c r="AE33">
         <f t="shared" si="2"/>
-        <v>-3.4489659581060524E-3</v>
-      </c>
-      <c r="Q33">
-        <f t="shared" si="3"/>
-        <v>1.2633299252372674</v>
+        <v>17.478927164766201</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>0.5</v>
       </c>
@@ -2290,55 +3906,108 @@
         <v>2450</v>
       </c>
       <c r="E34" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>7</v>
       </c>
       <c r="F34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>24.5</v>
       </c>
       <c r="G34" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>1.5915494309189533E-3</v>
       </c>
       <c r="H34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>0.5</v>
       </c>
       <c r="I34" s="4">
         <v>0</v>
       </c>
       <c r="J34">
-        <f t="shared" si="6"/>
-        <v>0.43157994624403018</v>
+        <f t="shared" si="17"/>
+        <v>0.55197308131828315</v>
       </c>
       <c r="K34">
         <v>2.8740600000000002E-2</v>
       </c>
       <c r="L34" s="5">
-        <f t="shared" si="0"/>
-        <v>-1.2403866603021174E-2</v>
+        <f t="shared" si="3"/>
+        <v>-1.5864037540936248E-2</v>
       </c>
       <c r="M34">
         <v>7.9569200000000007E-2</v>
       </c>
       <c r="N34">
-        <f t="shared" si="1"/>
-        <v>-3.4340471058680488E-2</v>
+        <f t="shared" si="4"/>
+        <v>-4.3920056502030742E-2</v>
       </c>
       <c r="O34" s="1">
         <v>5.1546399999999999E-2</v>
       </c>
       <c r="P34">
+        <f t="shared" si="5"/>
+        <v>-1.5637601047058583E-3</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="6"/>
+        <v>0.74325505884588505</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="7"/>
+        <v>18.194750686657649</v>
+      </c>
+      <c r="S34" s="1">
+        <f t="shared" si="8"/>
+        <v>0.1484</v>
+      </c>
+      <c r="T34" s="1">
+        <f t="shared" si="18"/>
+        <v>0.53165000000000007</v>
+      </c>
+      <c r="U34" s="1">
+        <f t="shared" si="9"/>
+        <v>0.53165000000000007</v>
+      </c>
+      <c r="V34" s="7">
+        <f t="shared" si="10"/>
+        <v>0.55197308131828327</v>
+      </c>
+      <c r="W34" s="2">
+        <f>S34/$S$5</f>
+        <v>7</v>
+      </c>
+      <c r="X34" s="6">
+        <f t="shared" si="11"/>
+        <v>3.4536622650941294E-5</v>
+      </c>
+      <c r="Y34" s="2">
+        <f t="shared" si="12"/>
+        <v>0.50000000000000011</v>
+      </c>
+      <c r="Z34" s="2"/>
+      <c r="AA34">
+        <f t="shared" si="13"/>
+        <v>7696.9020012949932</v>
+      </c>
+      <c r="AB34">
+        <f t="shared" si="14"/>
+        <v>24.5</v>
+      </c>
+      <c r="AC34" s="4">
+        <f t="shared" si="0"/>
+        <v>0.55197308131828327</v>
+      </c>
+      <c r="AD34">
+        <f t="shared" si="1"/>
+        <v>18.194750686657652</v>
+      </c>
+      <c r="AE34">
         <f t="shared" si="2"/>
-        <v>-2.7710684960957567E-3</v>
-      </c>
-      <c r="Q34">
-        <f t="shared" si="3"/>
-        <v>1.31708864546013</v>
+        <v>18.194750686657649</v>
       </c>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:31" x14ac:dyDescent="0.25">
       <c r="O35" s="3"/>
     </row>
   </sheetData>
